--- a/Code/Results/Cases/Case_5_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.914359168898102</v>
+        <v>3.468573612270347</v>
       </c>
       <c r="C2">
-        <v>1.126166936818436</v>
+        <v>0.9129399490929018</v>
       </c>
       <c r="D2">
-        <v>0.325875453098547</v>
+        <v>0.02660178185343653</v>
       </c>
       <c r="E2">
-        <v>1.508533817718856</v>
+        <v>0.05657698445100934</v>
       </c>
       <c r="F2">
-        <v>6.64452350282707</v>
+        <v>6.697010738351679</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2902423074051654</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +456,43 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.330642336703761</v>
+        <v>2.985647043942606</v>
       </c>
       <c r="C3">
-        <v>0.9572611794098975</v>
+        <v>0.7808035465568253</v>
       </c>
       <c r="D3">
-        <v>0.2831316595814144</v>
+        <v>0.02233706889594345</v>
       </c>
       <c r="E3">
-        <v>1.274478987757249</v>
+        <v>0.05076885660303532</v>
       </c>
       <c r="F3">
-        <v>5.740081127864897</v>
+        <v>5.94351753603263</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2563432759093871</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,37 +503,43 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.984560682169786</v>
+        <v>2.698000648730613</v>
       </c>
       <c r="C4">
-        <v>0.8573255503605139</v>
+        <v>0.7022083784687254</v>
       </c>
       <c r="D4">
-        <v>0.2579759541256266</v>
+        <v>0.01984411156174559</v>
       </c>
       <c r="E4">
-        <v>1.1371589253542</v>
+        <v>0.04737292720255581</v>
       </c>
       <c r="F4">
-        <v>5.205753057272688</v>
+        <v>5.496536916839403</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.236273133529167</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -532,37 +550,43 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.846075309607897</v>
+        <v>2.58268903580381</v>
       </c>
       <c r="C5">
-        <v>0.8173694701361285</v>
+        <v>0.6707204676050083</v>
       </c>
       <c r="D5">
-        <v>0.2479501194263207</v>
+        <v>0.01885461562920199</v>
       </c>
       <c r="E5">
-        <v>1.08250166838873</v>
+        <v>0.04602712259251973</v>
       </c>
       <c r="F5">
-        <v>4.992389693943153</v>
+        <v>5.317764045469914</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2282560459014746</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -573,37 +597,43 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.823219155933714</v>
+        <v>2.563648054981797</v>
       </c>
       <c r="C6">
-        <v>0.8107764951696481</v>
+        <v>0.6655219318883496</v>
       </c>
       <c r="D6">
-        <v>0.2462976683817857</v>
+        <v>0.01869176629788072</v>
       </c>
       <c r="E6">
-        <v>1.073496571775607</v>
+        <v>0.04580582406265776</v>
       </c>
       <c r="F6">
-        <v>4.957201619896125</v>
+        <v>5.288267578320102</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.226933893030477</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -614,37 +644,43 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.982683379503271</v>
+        <v>2.696438195829103</v>
       </c>
       <c r="C7">
-        <v>0.8567837937618208</v>
+        <v>0.7017816541097943</v>
       </c>
       <c r="D7">
-        <v>0.2578398885759299</v>
+        <v>0.01983066633020769</v>
       </c>
       <c r="E7">
-        <v>1.136416892278035</v>
+        <v>0.04735462893745535</v>
       </c>
       <c r="F7">
-        <v>5.202858922663552</v>
+        <v>5.494112953628047</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2361643890994856</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -655,37 +691,43 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.710173144604994</v>
+        <v>3.300010363258821</v>
       </c>
       <c r="C8">
-        <v>1.067026413432615</v>
+        <v>0.8667897431880078</v>
       </c>
       <c r="D8">
-        <v>0.3108795245656069</v>
+        <v>0.02510190675187829</v>
       </c>
       <c r="E8">
-        <v>1.42630338190682</v>
+        <v>0.0545359355041164</v>
       </c>
       <c r="F8">
-        <v>6.327722628874369</v>
+        <v>6.433592380814986</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.278383168101044</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -696,37 +738,43 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.265612434942454</v>
+        <v>4.57123733017545</v>
       </c>
       <c r="C9">
-        <v>1.519464088145412</v>
+        <v>1.215717990869962</v>
       </c>
       <c r="D9">
-        <v>0.4262493254934157</v>
+        <v>0.03671121169767844</v>
       </c>
       <c r="E9">
-        <v>2.063029095768741</v>
+        <v>0.07022307140862338</v>
       </c>
       <c r="F9">
-        <v>8.75047842122413</v>
+        <v>8.430011956717806</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3684232832467984</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -737,37 +785,43 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.544014937011752</v>
+        <v>5.587768295456328</v>
       </c>
       <c r="C10">
-        <v>1.89532847186706</v>
+        <v>1.496416302195883</v>
       </c>
       <c r="D10">
-        <v>0.522916915836646</v>
+        <v>0.04648627470737665</v>
       </c>
       <c r="E10">
-        <v>2.605783700958995</v>
+        <v>0.08315735432219284</v>
       </c>
       <c r="F10">
-        <v>10.75424082456158</v>
+        <v>10.04084318037096</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4412656158571622</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -778,37 +832,43 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.173871963502847</v>
+        <v>6.076591781754814</v>
       </c>
       <c r="C11">
-        <v>2.082108635261989</v>
+        <v>1.632000335732982</v>
       </c>
       <c r="D11">
-        <v>0.5711190794098684</v>
+        <v>0.05134164564024246</v>
       </c>
       <c r="E11">
-        <v>2.880487308587078</v>
+        <v>0.08947297613425675</v>
       </c>
       <c r="F11">
-        <v>11.7442678578837</v>
+        <v>10.8193751978614</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4765125088913749</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -819,37 +879,43 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.42164443158299</v>
+        <v>6.266403394191741</v>
       </c>
       <c r="C12">
-        <v>2.155900022332105</v>
+        <v>1.684760249483702</v>
       </c>
       <c r="D12">
-        <v>0.5901816606651096</v>
+        <v>0.05325406278791434</v>
       </c>
       <c r="E12">
-        <v>2.989983930174844</v>
+        <v>0.0919402087467347</v>
       </c>
       <c r="F12">
-        <v>12.13409822220416</v>
+        <v>11.12231479388481</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4902337014483322</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -860,37 +926,43 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.367823890402519</v>
+        <v>6.225298001063322</v>
       </c>
       <c r="C13">
-        <v>2.139855567028462</v>
+        <v>1.673329183237172</v>
       </c>
       <c r="D13">
-        <v>0.5860361389528919</v>
+        <v>0.05283862771864278</v>
       </c>
       <c r="E13">
-        <v>2.96612815560195</v>
+        <v>0.0914052304003512</v>
       </c>
       <c r="F13">
-        <v>12.04940447598295</v>
+        <v>11.056681341505</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4872606622269871</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -901,37 +973,43 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.194054377950579</v>
+        <v>6.092107427650262</v>
       </c>
       <c r="C14">
-        <v>2.088112497045017</v>
+        <v>1.636310659246703</v>
       </c>
       <c r="D14">
-        <v>0.5726697167179964</v>
+        <v>0.05149740299255257</v>
       </c>
       <c r="E14">
-        <v>2.88937530682017</v>
+        <v>0.08967435148522185</v>
       </c>
       <c r="F14">
-        <v>11.77601453255403</v>
+        <v>10.84412519932113</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4776334017634412</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -942,37 +1020,43 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.08890482141237</v>
+        <v>6.011167686879048</v>
       </c>
       <c r="C15">
-        <v>2.056845769327651</v>
+        <v>1.613829849220224</v>
       </c>
       <c r="D15">
-        <v>0.5645950867809688</v>
+        <v>0.05068598334967334</v>
       </c>
       <c r="E15">
-        <v>2.843128857796899</v>
+        <v>0.08862444689859927</v>
       </c>
       <c r="F15">
-        <v>11.61063028757542</v>
+        <v>10.71503876239257</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4717875004530185</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -983,37 +1067,43 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.50400352544915</v>
+        <v>5.556426723642801</v>
       </c>
       <c r="C16">
-        <v>1.883500865547262</v>
+        <v>1.487737016849621</v>
       </c>
       <c r="D16">
-        <v>0.5198674745138021</v>
+        <v>0.0461783920296952</v>
       </c>
       <c r="E16">
-        <v>2.588503621290769</v>
+        <v>0.08275438973749871</v>
       </c>
       <c r="F16">
-        <v>10.69140251426279</v>
+        <v>9.991009378950537</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4390102806707858</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1024,37 +1114,43 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.15895970797817</v>
+        <v>5.284802838419012</v>
       </c>
       <c r="C17">
-        <v>1.781682087096442</v>
+        <v>1.412585430973422</v>
       </c>
       <c r="D17">
-        <v>0.4936334766607047</v>
+        <v>0.04352740939987143</v>
       </c>
       <c r="E17">
-        <v>2.44029819335357</v>
+        <v>0.07927257979892133</v>
       </c>
       <c r="F17">
-        <v>10.14980673568229</v>
+        <v>9.559555329251282</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4194883779269105</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1065,37 +1161,43 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.964870503361794</v>
+        <v>5.130991756376829</v>
       </c>
       <c r="C18">
-        <v>1.724545184917986</v>
+        <v>1.37008289500028</v>
       </c>
       <c r="D18">
-        <v>0.4789269749357175</v>
+        <v>0.0420400175576745</v>
       </c>
       <c r="E18">
-        <v>2.357557198201363</v>
+        <v>0.07730960235540252</v>
       </c>
       <c r="F18">
-        <v>9.845408758620636</v>
+        <v>9.315590929016082</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4084535197053469</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1106,37 +1208,43 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.899848177217791</v>
+        <v>5.079305157285944</v>
       </c>
       <c r="C19">
-        <v>1.705425019204313</v>
+        <v>1.355808833910999</v>
       </c>
       <c r="D19">
-        <v>0.4740082858559163</v>
+        <v>0.04154243116172296</v>
       </c>
       <c r="E19">
-        <v>2.329936379577049</v>
+        <v>0.07665142120115576</v>
       </c>
       <c r="F19">
-        <v>9.743475328211446</v>
+        <v>9.233667903013441</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4047486666026145</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1147,37 +1255,43 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.195223673441717</v>
+        <v>5.313461299558071</v>
       </c>
       <c r="C20">
-        <v>1.792368411244752</v>
+        <v>1.420508817836549</v>
       </c>
       <c r="D20">
-        <v>0.4963852983871107</v>
+        <v>0.0438056444126218</v>
       </c>
       <c r="E20">
-        <v>2.455807017030651</v>
+        <v>0.07963903066938727</v>
       </c>
       <c r="F20">
-        <v>10.20670192538611</v>
+        <v>9.605039918332295</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4215460185762225</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1188,37 +1302,43 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.244820566280566</v>
+        <v>6.131092720098991</v>
       </c>
       <c r="C21">
-        <v>2.103219748298898</v>
+        <v>1.64714284105213</v>
       </c>
       <c r="D21">
-        <v>0.5765718000771756</v>
+        <v>0.05188921209484221</v>
       </c>
       <c r="E21">
-        <v>2.911756093989709</v>
+        <v>0.09018057527982748</v>
       </c>
       <c r="F21">
-        <v>11.8558748385849</v>
+        <v>10.90632340758987</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4804503677265188</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1229,37 +1349,43 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.986573740760264</v>
+        <v>6.693477306613374</v>
       </c>
       <c r="C22">
-        <v>2.324852423173581</v>
+        <v>1.803707263779188</v>
       </c>
       <c r="D22">
-        <v>0.6338543903200389</v>
+        <v>0.05761233387610076</v>
       </c>
       <c r="E22">
-        <v>3.242854261593664</v>
+        <v>0.0975198597471767</v>
       </c>
       <c r="F22">
-        <v>13.02354365974946</v>
+        <v>11.80515760434469</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5211733053362906</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1270,37 +1396,43 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.584561878587181</v>
+        <v>6.390398251189481</v>
       </c>
       <c r="C23">
-        <v>2.204521223113716</v>
+        <v>1.719260574817781</v>
       </c>
       <c r="D23">
-        <v>0.6027465007992987</v>
+        <v>0.05451152800631576</v>
       </c>
       <c r="E23">
-        <v>3.062441503718489</v>
+        <v>0.09355620258920894</v>
       </c>
       <c r="F23">
-        <v>12.39051988212776</v>
+        <v>11.32039519361626</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4992071567050544</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1311,37 +1443,43 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.178815561461818</v>
+        <v>5.300497557955168</v>
       </c>
       <c r="C24">
-        <v>1.787532818178761</v>
+        <v>1.416924484946378</v>
       </c>
       <c r="D24">
-        <v>0.4951400433990898</v>
+        <v>0.04367974115491791</v>
       </c>
       <c r="E24">
-        <v>2.448787904000667</v>
+        <v>0.07947323847603016</v>
       </c>
       <c r="F24">
-        <v>10.18095814634879</v>
+        <v>9.584463725771116</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4206151770577691</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1352,37 +1490,43 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.826028893508465</v>
+        <v>4.215271453928665</v>
       </c>
       <c r="C25">
-        <v>1.391116050906078</v>
+        <v>1.117794532539733</v>
       </c>
       <c r="D25">
-        <v>0.3933856390594315</v>
+        <v>0.03339128595110452</v>
       </c>
       <c r="E25">
-        <v>1.880604580108283</v>
+        <v>0.06576791678811489</v>
       </c>
       <c r="F25">
-        <v>8.063775557493216</v>
+        <v>7.86880036181276</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3430795295318489</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.468573612270347</v>
+        <v>1.068527405536884</v>
       </c>
       <c r="C2">
-        <v>0.9129399490929018</v>
+        <v>0.3114134496530596</v>
       </c>
       <c r="D2">
-        <v>0.02660178185343653</v>
+        <v>0.04181536838098765</v>
       </c>
       <c r="E2">
-        <v>0.05657698445100934</v>
+        <v>0.06336765344254758</v>
       </c>
       <c r="F2">
-        <v>6.697010738351679</v>
+        <v>1.783065914059975</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.8848832799204303</v>
       </c>
       <c r="J2">
-        <v>0.2902423074051654</v>
+        <v>0.1032345997432245</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.356849294559225</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3908534301908304</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.601669748507874</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.985647043942606</v>
+        <v>0.9304061643474029</v>
       </c>
       <c r="C3">
-        <v>0.7808035465568253</v>
+        <v>0.2740461352991872</v>
       </c>
       <c r="D3">
-        <v>0.02233706889594345</v>
+        <v>0.03668096014955324</v>
       </c>
       <c r="E3">
-        <v>0.05076885660303532</v>
+        <v>0.05823720359700602</v>
       </c>
       <c r="F3">
-        <v>5.94351753603263</v>
+        <v>1.699677117208907</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.8603700078429455</v>
       </c>
       <c r="J3">
-        <v>0.2563432759093871</v>
+        <v>0.09747465277561673</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.184220996608246</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.344863037389608</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.637348628018792</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.698000648730613</v>
+        <v>0.8465845598464057</v>
       </c>
       <c r="C4">
-        <v>0.7022083784687254</v>
+        <v>0.251516286182806</v>
       </c>
       <c r="D4">
-        <v>0.01984411156174559</v>
+        <v>0.03355241120734576</v>
       </c>
       <c r="E4">
-        <v>0.04737292720255581</v>
+        <v>0.05516178839964425</v>
       </c>
       <c r="F4">
-        <v>5.496536916839403</v>
+        <v>1.651189241141793</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.846653073249918</v>
       </c>
       <c r="J4">
-        <v>0.236273133529167</v>
+        <v>0.09408242035558345</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.079627442444036</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3170593372431938</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.660987914823032</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.58268903580381</v>
+        <v>0.8126457959308766</v>
       </c>
       <c r="C5">
-        <v>0.6707204676050083</v>
+        <v>0.2424285890522526</v>
       </c>
       <c r="D5">
-        <v>0.01885461562920199</v>
+        <v>0.03228292210700801</v>
       </c>
       <c r="E5">
-        <v>0.04602712259251973</v>
+        <v>0.05392606863334493</v>
       </c>
       <c r="F5">
-        <v>5.317764045469914</v>
+        <v>1.632071414316002</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.8413807112554679</v>
       </c>
       <c r="J5">
-        <v>0.2282560459014746</v>
+        <v>0.09273416482054131</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.037317975480846</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.305827868249068</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.671041867936047</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.563648054981797</v>
+        <v>0.8070227294402628</v>
       </c>
       <c r="C6">
-        <v>0.6655219318883496</v>
+        <v>0.240924926465496</v>
       </c>
       <c r="D6">
-        <v>0.01869176629788072</v>
+        <v>0.03207243456550657</v>
       </c>
       <c r="E6">
-        <v>0.04580582406265776</v>
+        <v>0.05372190246767872</v>
       </c>
       <c r="F6">
-        <v>5.288267578320102</v>
+        <v>1.628934504789868</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.840523901405696</v>
       </c>
       <c r="J6">
-        <v>0.226933893030477</v>
+        <v>0.09251228615016771</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.030310346979661</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3039685616122867</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.672736315660366</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.696438195829103</v>
+        <v>0.8461259986411847</v>
       </c>
       <c r="C7">
-        <v>0.7017816541097943</v>
+        <v>0.2513933617362341</v>
       </c>
       <c r="D7">
-        <v>0.01983066633020769</v>
+        <v>0.03353526927102024</v>
       </c>
       <c r="E7">
-        <v>0.04735462893745535</v>
+        <v>0.05514505363771249</v>
       </c>
       <c r="F7">
-        <v>5.494112953628047</v>
+        <v>1.650928866686826</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.8465807063127073</v>
       </c>
       <c r="J7">
-        <v>0.2361643890994856</v>
+        <v>0.09406410202532101</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.0790556235834</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.316907479249231</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.661121821255968</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.300010363258821</v>
+        <v>1.020680881118665</v>
       </c>
       <c r="C8">
-        <v>0.8667897431880078</v>
+        <v>0.2984366588376872</v>
       </c>
       <c r="D8">
-        <v>0.02510190675187829</v>
+        <v>0.04003965937446452</v>
       </c>
       <c r="E8">
-        <v>0.0545359355041164</v>
+        <v>0.06158239350418881</v>
       </c>
       <c r="F8">
-        <v>6.433592380814986</v>
+        <v>1.75372489305272</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.8761428885904792</v>
       </c>
       <c r="J8">
-        <v>0.278383168101044</v>
+        <v>0.1012172287724198</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.297011978266653</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.374899192470572</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.61360304370298</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.57123733017545</v>
+        <v>1.372201675387402</v>
       </c>
       <c r="C9">
-        <v>1.215717990869962</v>
+        <v>0.3944949763928491</v>
       </c>
       <c r="D9">
-        <v>0.03671121169767844</v>
+        <v>0.05301564685525051</v>
       </c>
       <c r="E9">
-        <v>0.07022307140862338</v>
+        <v>0.07485969123558789</v>
       </c>
       <c r="F9">
-        <v>8.430011956717806</v>
+        <v>1.978828379641911</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.9455838943096069</v>
       </c>
       <c r="J9">
-        <v>0.3684232832467984</v>
+        <v>0.1164977059673689</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.737452190115903</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.4925840937321126</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.53488417046141</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.587768295456328</v>
+        <v>1.638213821992139</v>
       </c>
       <c r="C10">
-        <v>1.496416302195883</v>
+        <v>0.46818617517485</v>
       </c>
       <c r="D10">
-        <v>0.04648627470737665</v>
+        <v>0.0627305145287167</v>
       </c>
       <c r="E10">
-        <v>0.08315735432219284</v>
+        <v>0.08510541559490648</v>
       </c>
       <c r="F10">
-        <v>10.04084318037096</v>
+        <v>2.161567843367678</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.004928956478196</v>
       </c>
       <c r="J10">
-        <v>0.4412656158571622</v>
+        <v>0.1286509911238056</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.07189551429741</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.5822459098085773</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.486953976543859</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.076591781754814</v>
+        <v>1.761435206105432</v>
       </c>
       <c r="C11">
-        <v>1.632000335732982</v>
+        <v>0.5025838801519171</v>
       </c>
       <c r="D11">
-        <v>0.05134164564024246</v>
+        <v>0.06720091407554207</v>
       </c>
       <c r="E11">
-        <v>0.08947297613425675</v>
+        <v>0.08989564034557063</v>
       </c>
       <c r="F11">
-        <v>10.8193751978614</v>
+        <v>2.249210867647847</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.034062693725907</v>
       </c>
       <c r="J11">
-        <v>0.4765125088913749</v>
+        <v>0.134420982999508</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.227114267198345</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.6239220704278878</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.467568301333969</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.266403394191741</v>
+        <v>1.80846159030898</v>
       </c>
       <c r="C12">
-        <v>1.684760249483702</v>
+        <v>0.5157533817327078</v>
       </c>
       <c r="D12">
-        <v>0.05325406278791434</v>
+        <v>0.06890211213320185</v>
       </c>
       <c r="E12">
-        <v>0.0919402087467347</v>
+        <v>0.09173023529177016</v>
       </c>
       <c r="F12">
-        <v>11.12231479388481</v>
+        <v>2.283116295602042</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.045432468927736</v>
       </c>
       <c r="J12">
-        <v>0.4902337014483322</v>
+        <v>0.1366443016176149</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.286399754759685</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.6398490668321415</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.460600218847446</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.225298001063322</v>
+        <v>1.798316579446464</v>
       </c>
       <c r="C13">
-        <v>1.673329183237172</v>
+        <v>0.5129103912213395</v>
       </c>
       <c r="D13">
-        <v>0.05283862771864278</v>
+        <v>0.06853533999219508</v>
       </c>
       <c r="E13">
-        <v>0.0914052304003512</v>
+        <v>0.09133417005744349</v>
       </c>
       <c r="F13">
-        <v>11.056681341505</v>
+        <v>2.27578112064478</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.042968265402202</v>
       </c>
       <c r="J13">
-        <v>0.4872606622269871</v>
+        <v>0.1361637030955691</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.273607894224853</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.6364121539633274</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.462083910484395</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.092107427650262</v>
+        <v>1.765296491467353</v>
       </c>
       <c r="C14">
-        <v>1.636310659246703</v>
+        <v>0.5036643508941268</v>
       </c>
       <c r="D14">
-        <v>0.05149740299255257</v>
+        <v>0.06734069909049367</v>
       </c>
       <c r="E14">
-        <v>0.08967435148522185</v>
+        <v>0.09004614759068374</v>
       </c>
       <c r="F14">
-        <v>10.84412519932113</v>
+        <v>2.251985508017995</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.034991146030805</v>
       </c>
       <c r="J14">
-        <v>0.4776334017634412</v>
+        <v>0.1346031061742181</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.231981155402281</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.6252293798917705</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.46698740765062</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.011167686879048</v>
+        <v>1.745119758990171</v>
       </c>
       <c r="C15">
-        <v>1.613829849220224</v>
+        <v>0.4980201801108421</v>
       </c>
       <c r="D15">
-        <v>0.05068598334967334</v>
+        <v>0.06661006671198777</v>
       </c>
       <c r="E15">
-        <v>0.08862444689859927</v>
+        <v>0.08925994820477356</v>
       </c>
       <c r="F15">
-        <v>10.71503876239257</v>
+        <v>2.237505494670074</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.030149820024626</v>
       </c>
       <c r="J15">
-        <v>0.4717875004530185</v>
+        <v>0.1336523032075334</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.206551697446258</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.6183990525162031</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.47004028590473</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.556426723642801</v>
+        <v>1.630209440602357</v>
       </c>
       <c r="C16">
-        <v>1.487737016849621</v>
+        <v>0.4659573132076957</v>
       </c>
       <c r="D16">
-        <v>0.0461783920296952</v>
+        <v>0.06243947531738314</v>
       </c>
       <c r="E16">
-        <v>0.08275438973749871</v>
+        <v>0.08479513661496441</v>
       </c>
       <c r="F16">
-        <v>9.991009378950537</v>
+        <v>2.15593665062741</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.003070517366339</v>
       </c>
       <c r="J16">
-        <v>0.4390102806707858</v>
+        <v>0.1282790692861937</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.061818957044608</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.5795416025757021</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.488271626981657</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.284802838419012</v>
+        <v>1.560314204294002</v>
       </c>
       <c r="C17">
-        <v>1.412585430973422</v>
+        <v>0.4465241970822831</v>
       </c>
       <c r="D17">
-        <v>0.04352740939987143</v>
+        <v>0.05989472190835698</v>
       </c>
       <c r="E17">
-        <v>0.07927257979892133</v>
+        <v>0.0820906507884267</v>
       </c>
       <c r="F17">
-        <v>9.559555329251282</v>
+        <v>2.10709921617368</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.9870262216385726</v>
       </c>
       <c r="J17">
-        <v>0.4194883779269105</v>
+        <v>0.1250470750268704</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.973862871262696</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.5559432513598708</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.500092413501491</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.130991756376829</v>
+        <v>1.520317362832202</v>
       </c>
       <c r="C18">
-        <v>1.37008289500028</v>
+        <v>0.4354279857986398</v>
       </c>
       <c r="D18">
-        <v>0.0420400175576745</v>
+        <v>0.05843578698995344</v>
       </c>
       <c r="E18">
-        <v>0.07730960235540252</v>
+        <v>0.0805471490398304</v>
       </c>
       <c r="F18">
-        <v>9.315590929016082</v>
+        <v>2.0794296677511</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.977997184008089</v>
       </c>
       <c r="J18">
-        <v>0.4084535197053469</v>
+        <v>0.1232106026386077</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.923558425157353</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.5424526074505209</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.507117369214413</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.079305157285944</v>
+        <v>1.506808970434321</v>
       </c>
       <c r="C19">
-        <v>1.355808833910999</v>
+        <v>0.4316844262783093</v>
       </c>
       <c r="D19">
-        <v>0.04154243116172296</v>
+        <v>0.05794260139337126</v>
       </c>
       <c r="E19">
-        <v>0.07665142120115576</v>
+        <v>0.08002655590354735</v>
       </c>
       <c r="F19">
-        <v>9.233667903013441</v>
+        <v>2.070131482941534</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.9749734507393555</v>
       </c>
       <c r="J19">
-        <v>0.4047486666026145</v>
+        <v>0.122592561157461</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.906573374717368</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.5378985740787883</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.509533978865434</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.313461299558071</v>
+        <v>1.567733121890711</v>
       </c>
       <c r="C20">
-        <v>1.420508817836549</v>
+        <v>0.4485843565487926</v>
       </c>
       <c r="D20">
-        <v>0.0438056444126218</v>
+        <v>0.06016511764075716</v>
       </c>
       <c r="E20">
-        <v>0.07963903066938727</v>
+        <v>0.08237728695018021</v>
       </c>
       <c r="F20">
-        <v>9.605039918332295</v>
+        <v>2.112254058137495</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.9887133369762253</v>
       </c>
       <c r="J20">
-        <v>0.4215460185762225</v>
+        <v>0.1253887739346808</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.983195941581954</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.5584466766442233</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.498810510988037</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.131092720098991</v>
+        <v>1.774984984468006</v>
       </c>
       <c r="C21">
-        <v>1.64714284105213</v>
+        <v>0.5063760811768532</v>
       </c>
       <c r="D21">
-        <v>0.05188921209484221</v>
+        <v>0.06769135880439592</v>
       </c>
       <c r="E21">
-        <v>0.09018057527982748</v>
+        <v>0.0904238936923214</v>
       </c>
       <c r="F21">
-        <v>10.90632340758987</v>
+        <v>2.258954826712852</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.037324806500258</v>
       </c>
       <c r="J21">
-        <v>0.4804503677265188</v>
+        <v>0.1350604199032759</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.244193616705076</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.6285099461325885</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.465536799901017</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.693477306613374</v>
+        <v>1.91258944220391</v>
       </c>
       <c r="C22">
-        <v>1.803707263779188</v>
+        <v>0.5449943768328183</v>
       </c>
       <c r="D22">
-        <v>0.05761233387610076</v>
+        <v>0.07265942880274423</v>
       </c>
       <c r="E22">
-        <v>0.0975198597471767</v>
+        <v>0.09580420797478695</v>
       </c>
       <c r="F22">
-        <v>11.80515760434469</v>
+        <v>2.359047264937175</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.071078299289852</v>
       </c>
       <c r="J22">
-        <v>0.5211733053362906</v>
+        <v>0.1416068604478511</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.417763528904032</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.6751555969654106</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.445977274026447</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.390398251189481</v>
+        <v>1.838933548945874</v>
       </c>
       <c r="C23">
-        <v>1.719260574817781</v>
+        <v>0.5242990499594669</v>
       </c>
       <c r="D23">
-        <v>0.05451152800631576</v>
+        <v>0.0700030119723678</v>
       </c>
       <c r="E23">
-        <v>0.09355620258920894</v>
+        <v>0.09292080411674064</v>
       </c>
       <c r="F23">
-        <v>11.32039519361626</v>
+        <v>2.305216241227555</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.052871256769869</v>
       </c>
       <c r="J23">
-        <v>0.4992071567050544</v>
+        <v>0.1380909802706825</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.324829095651495</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.6501755044772324</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.456207504625382</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.300497557955168</v>
+        <v>1.564378450725798</v>
       </c>
       <c r="C24">
-        <v>1.416924484946378</v>
+        <v>0.4476527226134408</v>
       </c>
       <c r="D24">
-        <v>0.04367974115491791</v>
+        <v>0.06004285910444906</v>
       </c>
       <c r="E24">
-        <v>0.07947323847603016</v>
+        <v>0.08224766356143931</v>
       </c>
       <c r="F24">
-        <v>9.584463725771116</v>
+        <v>2.10992228910483</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.9879499868619632</v>
       </c>
       <c r="J24">
-        <v>0.4206151770577691</v>
+        <v>0.1252342247123153</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.978975647124713</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.5573146415135568</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.499389347614326</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.215271453928665</v>
+        <v>1.275909770485868</v>
       </c>
       <c r="C25">
-        <v>1.117794532539733</v>
+        <v>0.3680230852390594</v>
       </c>
       <c r="D25">
-        <v>0.03339128595110452</v>
+        <v>0.04947705311206363</v>
       </c>
       <c r="E25">
-        <v>0.06576791678811489</v>
+        <v>0.07118875685774384</v>
       </c>
       <c r="F25">
-        <v>7.86880036181276</v>
+        <v>1.91511767028301</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.9254393707223159</v>
       </c>
       <c r="J25">
-        <v>0.3430795295318489</v>
+        <v>0.112213778894791</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.616621003855784</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.4602460217444531</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.55452478485428</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.068527405536884</v>
+        <v>0.6743817574854631</v>
       </c>
       <c r="C2">
-        <v>0.3114134496530596</v>
+        <v>0.2449791818675635</v>
       </c>
       <c r="D2">
-        <v>0.04181536838098765</v>
+        <v>0.05732154878467099</v>
       </c>
       <c r="E2">
-        <v>0.06336765344254758</v>
+        <v>0.107454611188782</v>
       </c>
       <c r="F2">
-        <v>1.783065914059975</v>
+        <v>2.878803597020351</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.8848832799204303</v>
+        <v>1.501337203754353</v>
       </c>
       <c r="J2">
-        <v>0.1032345997432245</v>
+        <v>0.1807450889423592</v>
       </c>
       <c r="K2">
-        <v>1.356849294559225</v>
+        <v>0.9121141558725867</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3908534301908304</v>
+        <v>0.3575122264537711</v>
       </c>
       <c r="N2">
-        <v>1.601669748507874</v>
+        <v>2.967849150855301</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9304061643474029</v>
+        <v>0.6406894837234347</v>
       </c>
       <c r="C3">
-        <v>0.2740461352991872</v>
+        <v>0.2365572323609229</v>
       </c>
       <c r="D3">
-        <v>0.03668096014955324</v>
+        <v>0.0563272542536879</v>
       </c>
       <c r="E3">
-        <v>0.05823720359700602</v>
+        <v>0.1067583391954265</v>
       </c>
       <c r="F3">
-        <v>1.699677117208907</v>
+        <v>2.871212034085957</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.8603700078429455</v>
+        <v>1.501496086960103</v>
       </c>
       <c r="J3">
-        <v>0.09747465277561673</v>
+        <v>0.180229736806524</v>
       </c>
       <c r="K3">
-        <v>1.184220996608246</v>
+        <v>0.8708599391782172</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.344863037389608</v>
+        <v>0.3475142182274098</v>
       </c>
       <c r="N3">
-        <v>1.637348628018792</v>
+        <v>2.984003695558677</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8465845598464057</v>
+        <v>0.6203843842382923</v>
       </c>
       <c r="C4">
-        <v>0.251516286182806</v>
+        <v>0.2315308718672782</v>
       </c>
       <c r="D4">
-        <v>0.03355241120734576</v>
+        <v>0.05574239339158993</v>
       </c>
       <c r="E4">
-        <v>0.05516178839964425</v>
+        <v>0.1063766714217742</v>
       </c>
       <c r="F4">
-        <v>1.651189241141793</v>
+        <v>2.867788914015279</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.846653073249918</v>
+        <v>1.502191119430307</v>
       </c>
       <c r="J4">
-        <v>0.09408242035558345</v>
+        <v>0.1799882657656084</v>
       </c>
       <c r="K4">
-        <v>1.079627442444036</v>
+        <v>0.8460555906857792</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3170593372431938</v>
+        <v>0.341572948509139</v>
       </c>
       <c r="N4">
-        <v>1.660987914823032</v>
+        <v>2.994686754515833</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8126457959308766</v>
+        <v>0.6122060924509753</v>
       </c>
       <c r="C5">
-        <v>0.2424285890522526</v>
+        <v>0.2295189391074501</v>
       </c>
       <c r="D5">
-        <v>0.03228292210700801</v>
+        <v>0.05551053855075594</v>
       </c>
       <c r="E5">
-        <v>0.05392606863334493</v>
+        <v>0.1062326869378438</v>
       </c>
       <c r="F5">
-        <v>1.632071414316002</v>
+        <v>2.866705290557533</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.8413807112554679</v>
+        <v>1.502624559269769</v>
       </c>
       <c r="J5">
-        <v>0.09273416482054131</v>
+        <v>0.1799087227181673</v>
       </c>
       <c r="K5">
-        <v>1.037317975480846</v>
+        <v>0.8360799160353167</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.305827868249068</v>
+        <v>0.3392015573179208</v>
       </c>
       <c r="N5">
-        <v>1.671041867936047</v>
+        <v>2.999232255595508</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8070227294402628</v>
+        <v>0.6108539073057102</v>
       </c>
       <c r="C6">
-        <v>0.240924926465496</v>
+        <v>0.2291870532635585</v>
       </c>
       <c r="D6">
-        <v>0.03207243456550657</v>
+        <v>0.05547243163406534</v>
       </c>
       <c r="E6">
-        <v>0.05372190246767872</v>
+        <v>0.1062094764981332</v>
       </c>
       <c r="F6">
-        <v>1.628934504789868</v>
+        <v>2.866544158805482</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.840523901405696</v>
+        <v>1.502705602965705</v>
       </c>
       <c r="J6">
-        <v>0.09251228615016771</v>
+        <v>0.1798966539493279</v>
       </c>
       <c r="K6">
-        <v>1.030310346979661</v>
+        <v>0.8344314551528953</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3039685616122867</v>
+        <v>0.3388107943481913</v>
       </c>
       <c r="N6">
-        <v>1.672736315660366</v>
+        <v>2.999998630959212</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8461259986411847</v>
+        <v>0.6202736992587461</v>
       </c>
       <c r="C7">
-        <v>0.2513933617362341</v>
+        <v>0.2315035911224186</v>
       </c>
       <c r="D7">
-        <v>0.03353526927102024</v>
+        <v>0.05573924023191523</v>
       </c>
       <c r="E7">
-        <v>0.05514505363771249</v>
+        <v>0.106374682811559</v>
       </c>
       <c r="F7">
-        <v>1.650928866686826</v>
+        <v>2.86777303936789</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.8465807063127073</v>
+        <v>1.502196356811154</v>
       </c>
       <c r="J7">
-        <v>0.09406410202532101</v>
+        <v>0.1799871166501106</v>
       </c>
       <c r="K7">
-        <v>1.0790556235834</v>
+        <v>0.8459205195006234</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.316907479249231</v>
+        <v>0.3415407656991789</v>
       </c>
       <c r="N7">
-        <v>1.661121821255968</v>
+        <v>2.994747279165317</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.020680881118665</v>
+        <v>0.6626854175418373</v>
       </c>
       <c r="C8">
-        <v>0.2984366588376872</v>
+        <v>0.2420452178236872</v>
       </c>
       <c r="D8">
-        <v>0.04003965937446452</v>
+        <v>0.0569734139296898</v>
       </c>
       <c r="E8">
-        <v>0.06158239350418881</v>
+        <v>0.1072050326718959</v>
       </c>
       <c r="F8">
-        <v>1.75372489305272</v>
+        <v>2.875929034661169</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.8761428885904792</v>
+        <v>1.501267957186954</v>
       </c>
       <c r="J8">
-        <v>0.1012172287724198</v>
+        <v>0.1805518433626361</v>
       </c>
       <c r="K8">
-        <v>1.297011978266653</v>
+        <v>0.8977805665756193</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.374899192470572</v>
+        <v>0.3540239374602052</v>
       </c>
       <c r="N8">
-        <v>1.61360304370298</v>
+        <v>2.973260604696335</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.372201675387402</v>
+        <v>0.7488863686124887</v>
       </c>
       <c r="C9">
-        <v>0.3944949763928491</v>
+        <v>0.2638694768931202</v>
       </c>
       <c r="D9">
-        <v>0.05301564685525051</v>
+        <v>0.05959579168415274</v>
       </c>
       <c r="E9">
-        <v>0.07485969123558789</v>
+        <v>0.1091964447803804</v>
       </c>
       <c r="F9">
-        <v>1.978828379641911</v>
+        <v>2.901751739211321</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.9455838943096069</v>
+        <v>1.504191089102669</v>
       </c>
       <c r="J9">
-        <v>0.1164977059673689</v>
+        <v>0.1822538565913092</v>
       </c>
       <c r="K9">
-        <v>1.737452190115903</v>
+        <v>1.003655027482068</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4925840937321126</v>
+        <v>0.3800704623262874</v>
       </c>
       <c r="N9">
-        <v>1.53488417046141</v>
+        <v>2.937191387577698</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.638213821992139</v>
+        <v>0.8140741764138113</v>
       </c>
       <c r="C10">
-        <v>0.46818617517485</v>
+        <v>0.2806132397455769</v>
       </c>
       <c r="D10">
-        <v>0.0627305145287167</v>
+        <v>0.06164426381100441</v>
       </c>
       <c r="E10">
-        <v>0.08510541559490648</v>
+        <v>0.1108802921018324</v>
       </c>
       <c r="F10">
-        <v>2.161567843367678</v>
+        <v>2.9267284303114</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.004928956478196</v>
+        <v>1.509237025052002</v>
       </c>
       <c r="J10">
-        <v>0.1286509911238056</v>
+        <v>0.1838669668882673</v>
       </c>
       <c r="K10">
-        <v>2.07189551429741</v>
+        <v>1.084002982979285</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5822459098085773</v>
+        <v>0.4001642874106892</v>
       </c>
       <c r="N10">
-        <v>1.486953976543859</v>
+        <v>2.914393943654531</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.761435206105432</v>
+        <v>0.8441349944179137</v>
       </c>
       <c r="C11">
-        <v>0.5025838801519171</v>
+        <v>0.2883861370704892</v>
       </c>
       <c r="D11">
-        <v>0.06720091407554207</v>
+        <v>0.06260233349857458</v>
       </c>
       <c r="E11">
-        <v>0.08989564034557063</v>
+        <v>0.1116941493018189</v>
       </c>
       <c r="F11">
-        <v>2.249210867647847</v>
+        <v>2.939398102018572</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.034062693725907</v>
+        <v>1.51216346563784</v>
       </c>
       <c r="J11">
-        <v>0.134420982999508</v>
+        <v>0.1846796235977237</v>
       </c>
       <c r="K11">
-        <v>2.227114267198345</v>
+        <v>1.121115652017437</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6239220704278878</v>
+        <v>0.4095140276668587</v>
       </c>
       <c r="N11">
-        <v>1.467568301333969</v>
+        <v>2.904827861580642</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.80846159030898</v>
+        <v>0.8555767207447218</v>
       </c>
       <c r="C12">
-        <v>0.5157533817327078</v>
+        <v>0.2913520679209114</v>
       </c>
       <c r="D12">
-        <v>0.06890211213320185</v>
+        <v>0.06296886942995172</v>
       </c>
       <c r="E12">
-        <v>0.09173023529177016</v>
+        <v>0.1120092046634618</v>
       </c>
       <c r="F12">
-        <v>2.283116295602042</v>
+        <v>2.944383975270298</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.045432468927736</v>
+        <v>1.513362465987228</v>
       </c>
       <c r="J12">
-        <v>0.1366443016176149</v>
+        <v>0.1849986920389952</v>
       </c>
       <c r="K12">
-        <v>2.286399754759685</v>
+        <v>1.13525018844561</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6398490668321415</v>
+        <v>0.4130845771538958</v>
       </c>
       <c r="N12">
-        <v>1.460600218847446</v>
+        <v>2.901321246922762</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.798316579446464</v>
+        <v>0.8531099470744437</v>
       </c>
       <c r="C13">
-        <v>0.5129103912213395</v>
+        <v>0.2907122998388729</v>
       </c>
       <c r="D13">
-        <v>0.06853533999219508</v>
+        <v>0.06288976373725319</v>
       </c>
       <c r="E13">
-        <v>0.09133417005744349</v>
+        <v>0.1119410468004567</v>
       </c>
       <c r="F13">
-        <v>2.27578112064478</v>
+        <v>2.943301808790238</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.042968265402202</v>
+        <v>1.513100199210683</v>
       </c>
       <c r="J13">
-        <v>0.1361637030955691</v>
+        <v>0.184929470976904</v>
       </c>
       <c r="K13">
-        <v>2.273607894224853</v>
+        <v>1.132202471241754</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6364121539633274</v>
+        <v>0.4123142615817059</v>
       </c>
       <c r="N13">
-        <v>1.462083910484395</v>
+        <v>2.902071304036454</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.765296491467353</v>
+        <v>0.8450751434208428</v>
       </c>
       <c r="C14">
-        <v>0.5036643508941268</v>
+        <v>0.2886296946397522</v>
       </c>
       <c r="D14">
-        <v>0.06734069909049367</v>
+        <v>0.06263241395011221</v>
       </c>
       <c r="E14">
-        <v>0.09004614759068374</v>
+        <v>0.1117199316067534</v>
       </c>
       <c r="F14">
-        <v>2.251985508017995</v>
+        <v>2.939804521514858</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.034991146030805</v>
+        <v>1.512260287461203</v>
       </c>
       <c r="J14">
-        <v>0.1346031061742181</v>
+        <v>0.1847056464470711</v>
       </c>
       <c r="K14">
-        <v>2.231981155402281</v>
+        <v>1.122276890207416</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6252293798917705</v>
+        <v>0.4098071777994647</v>
       </c>
       <c r="N14">
-        <v>1.46698740765062</v>
+        <v>2.904537047518744</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.745119758990171</v>
+        <v>0.8401611892975325</v>
       </c>
       <c r="C15">
-        <v>0.4980201801108421</v>
+        <v>0.2873569712158996</v>
       </c>
       <c r="D15">
-        <v>0.06661006671198777</v>
+        <v>0.0624752652975431</v>
       </c>
       <c r="E15">
-        <v>0.08925994820477356</v>
+        <v>0.1115853857046147</v>
       </c>
       <c r="F15">
-        <v>2.237505494670074</v>
+        <v>2.937686837126506</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.030149820024626</v>
+        <v>1.511757647259635</v>
       </c>
       <c r="J15">
-        <v>0.1336523032075334</v>
+        <v>0.1845700232117338</v>
       </c>
       <c r="K15">
-        <v>2.206551697446258</v>
+        <v>1.116207703336698</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6183990525162031</v>
+        <v>0.4082754229960059</v>
       </c>
       <c r="N15">
-        <v>1.47004028590473</v>
+        <v>2.906062478721097</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.630209440602357</v>
+        <v>0.8121178022983031</v>
       </c>
       <c r="C16">
-        <v>0.4659573132076957</v>
+        <v>0.2801084083550336</v>
       </c>
       <c r="D16">
-        <v>0.06243947531738314</v>
+        <v>0.06158217626491336</v>
       </c>
       <c r="E16">
-        <v>0.08479513661496441</v>
+        <v>0.1108280662874463</v>
       </c>
       <c r="F16">
-        <v>2.15593665062741</v>
+        <v>2.925926759590254</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.003070517366339</v>
+        <v>1.509058479864883</v>
       </c>
       <c r="J16">
-        <v>0.1282790692861937</v>
+        <v>0.183815444001965</v>
       </c>
       <c r="K16">
-        <v>2.061818957044608</v>
+        <v>1.08158888793227</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5795416025757021</v>
+        <v>0.3995574610409705</v>
       </c>
       <c r="N16">
-        <v>1.488271626981657</v>
+        <v>2.915035313083294</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.560314204294002</v>
+        <v>0.7950181387378734</v>
       </c>
       <c r="C17">
-        <v>0.4465241970822831</v>
+        <v>0.2757016667407299</v>
       </c>
       <c r="D17">
-        <v>0.05989472190835698</v>
+        <v>0.06104098427133664</v>
       </c>
       <c r="E17">
-        <v>0.0820906507884267</v>
+        <v>0.1103757223726269</v>
       </c>
       <c r="F17">
-        <v>2.10709921617368</v>
+        <v>2.919047326553283</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.9870262216385726</v>
+        <v>1.507564304104697</v>
       </c>
       <c r="J17">
-        <v>0.1250470750268704</v>
+        <v>0.1833727246172003</v>
       </c>
       <c r="K17">
-        <v>1.973862871262696</v>
+        <v>1.060495274545502</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5559432513598708</v>
+        <v>0.394262762638462</v>
       </c>
       <c r="N17">
-        <v>1.500092413501491</v>
+        <v>2.920746039301122</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.520317362832202</v>
+        <v>0.7852211383547569</v>
       </c>
       <c r="C18">
-        <v>0.4354279857986398</v>
+        <v>0.273181712445222</v>
       </c>
       <c r="D18">
-        <v>0.05843578698995344</v>
+        <v>0.06073217387625363</v>
       </c>
       <c r="E18">
-        <v>0.0805471490398304</v>
+        <v>0.1101200526046746</v>
       </c>
       <c r="F18">
-        <v>2.0794296677511</v>
+        <v>2.915213534155967</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.977997184008089</v>
+        <v>1.50676428320196</v>
       </c>
       <c r="J18">
-        <v>0.1232106026386077</v>
+        <v>0.1831255056457906</v>
       </c>
       <c r="K18">
-        <v>1.923558425157353</v>
+        <v>1.0484156843942</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5424526074505209</v>
+        <v>0.3912370627674235</v>
       </c>
       <c r="N18">
-        <v>1.507117369214413</v>
+        <v>2.924106420233088</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.506808970434321</v>
+        <v>0.7819106194916685</v>
       </c>
       <c r="C19">
-        <v>0.4316844262783093</v>
+        <v>0.2723310199090747</v>
       </c>
       <c r="D19">
-        <v>0.05794260139337126</v>
+        <v>0.06062804103572716</v>
       </c>
       <c r="E19">
-        <v>0.08002655590354735</v>
+        <v>0.1100342617549934</v>
       </c>
       <c r="F19">
-        <v>2.070131482941534</v>
+        <v>2.913936613159876</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.9749734507393555</v>
+        <v>1.506503607648838</v>
       </c>
       <c r="J19">
-        <v>0.122592561157461</v>
+        <v>0.1830430763521136</v>
       </c>
       <c r="K19">
-        <v>1.906573374717368</v>
+        <v>1.044334829292069</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5378985740787883</v>
+        <v>0.3902159925305355</v>
       </c>
       <c r="N19">
-        <v>1.509533978865434</v>
+        <v>2.925257188238874</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.567733121890711</v>
+        <v>0.7968344667633573</v>
       </c>
       <c r="C20">
-        <v>0.4485843565487926</v>
+        <v>0.2761692514380343</v>
       </c>
       <c r="D20">
-        <v>0.06016511764075716</v>
+        <v>0.06109833980055868</v>
       </c>
       <c r="E20">
-        <v>0.08237728695018021</v>
+        <v>0.1104234088802762</v>
       </c>
       <c r="F20">
-        <v>2.112254058137495</v>
+        <v>2.919766915333142</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.9887133369762253</v>
+        <v>1.507717214491414</v>
       </c>
       <c r="J20">
-        <v>0.1253887739346808</v>
+        <v>0.1834190847895272</v>
       </c>
       <c r="K20">
-        <v>1.983195941581954</v>
+        <v>1.062735251206504</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5584466766442233</v>
+        <v>0.3948243567975993</v>
       </c>
       <c r="N20">
-        <v>1.498810510988037</v>
+        <v>2.920130284660658</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.774984984468006</v>
+        <v>0.8474335774073154</v>
       </c>
       <c r="C21">
-        <v>0.5063760811768532</v>
+        <v>0.2892407950537006</v>
       </c>
       <c r="D21">
-        <v>0.06769135880439592</v>
+        <v>0.06270790269689286</v>
       </c>
       <c r="E21">
-        <v>0.0904238936923214</v>
+        <v>0.1117846923180679</v>
       </c>
       <c r="F21">
-        <v>2.258954826712852</v>
+        <v>2.940826652537424</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.037324806500258</v>
+        <v>1.512504524392661</v>
       </c>
       <c r="J21">
-        <v>0.1350604199032759</v>
+        <v>0.1847710816003598</v>
       </c>
       <c r="K21">
-        <v>2.244193616705076</v>
+        <v>1.125190082055411</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6285099461325885</v>
+        <v>0.4105427550616909</v>
       </c>
       <c r="N21">
-        <v>1.465536799901017</v>
+        <v>2.903809653421064</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.91258944220391</v>
+        <v>0.8808430603184547</v>
       </c>
       <c r="C22">
-        <v>0.5449943768328183</v>
+        <v>0.2979149996755552</v>
       </c>
       <c r="D22">
-        <v>0.07265942880274423</v>
+        <v>0.06378160459404825</v>
       </c>
       <c r="E22">
-        <v>0.09580420797478695</v>
+        <v>0.1127143778317503</v>
       </c>
       <c r="F22">
-        <v>2.359047264937175</v>
+        <v>2.955687105282422</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.071078299289852</v>
+        <v>1.516162720722221</v>
       </c>
       <c r="J22">
-        <v>0.1416068604478511</v>
+        <v>0.1857207449623104</v>
       </c>
       <c r="K22">
-        <v>2.417763528904032</v>
+        <v>1.166478722782699</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6751555969654106</v>
+        <v>0.4209905147919315</v>
       </c>
       <c r="N22">
-        <v>1.445977274026447</v>
+        <v>2.893818531908082</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.838933548945874</v>
+        <v>0.8629807143668984</v>
       </c>
       <c r="C23">
-        <v>0.5242990499594669</v>
+        <v>0.2932733889665542</v>
       </c>
       <c r="D23">
-        <v>0.0700030119723678</v>
+        <v>0.06320656957949922</v>
       </c>
       <c r="E23">
-        <v>0.09292080411674064</v>
+        <v>0.1122145322810937</v>
       </c>
       <c r="F23">
-        <v>2.305216241227555</v>
+        <v>2.947655418055291</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.052871256769869</v>
+        <v>1.514161803800746</v>
       </c>
       <c r="J23">
-        <v>0.1380909802706825</v>
+        <v>0.1852078491927003</v>
       </c>
       <c r="K23">
-        <v>2.324829095651495</v>
+        <v>1.144399131689909</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6501755044772324</v>
+        <v>0.4153983611092755</v>
       </c>
       <c r="N23">
-        <v>1.456207504625382</v>
+        <v>2.8990891345628</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.564378450725798</v>
+        <v>0.7960131994960307</v>
       </c>
       <c r="C24">
-        <v>0.4476527226134408</v>
+        <v>0.2759578142250234</v>
       </c>
       <c r="D24">
-        <v>0.06004285910444906</v>
+        <v>0.0610724021122806</v>
       </c>
       <c r="E24">
-        <v>0.08224766356143931</v>
+        <v>0.1104018361385926</v>
       </c>
       <c r="F24">
-        <v>2.10992228910483</v>
+        <v>2.919441211440727</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.9879499868619632</v>
+        <v>1.507647899917032</v>
       </c>
       <c r="J24">
-        <v>0.1252342247123153</v>
+        <v>0.1833981025973941</v>
       </c>
       <c r="K24">
-        <v>1.978975647124713</v>
+        <v>1.061722410081103</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5573146415135568</v>
+        <v>0.3945704030956279</v>
       </c>
       <c r="N24">
-        <v>1.499389347614326</v>
+        <v>2.9204084268207</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.275909770485868</v>
+        <v>0.7252413710147039</v>
       </c>
       <c r="C25">
-        <v>0.3680230852390594</v>
+        <v>0.2578413610759185</v>
       </c>
       <c r="D25">
-        <v>0.04947705311206363</v>
+        <v>0.05886487493758352</v>
       </c>
       <c r="E25">
-        <v>0.07118875685774384</v>
+        <v>0.1086189053800446</v>
       </c>
       <c r="F25">
-        <v>1.91511767028301</v>
+        <v>2.893712463016072</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.9254393707223159</v>
+        <v>1.502891803042679</v>
       </c>
       <c r="J25">
-        <v>0.112213778894791</v>
+        <v>0.1817297464406664</v>
       </c>
       <c r="K25">
-        <v>1.616621003855784</v>
+        <v>0.9745644049953057</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4602460217444531</v>
+        <v>0.3728562075692992</v>
       </c>
       <c r="N25">
-        <v>1.55452478485428</v>
+        <v>2.946299194559444</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6743817574854631</v>
+        <v>1.06852740553677</v>
       </c>
       <c r="C2">
-        <v>0.2449791818675635</v>
+        <v>0.3114134496529744</v>
       </c>
       <c r="D2">
-        <v>0.05732154878467099</v>
+        <v>0.04181536838101607</v>
       </c>
       <c r="E2">
-        <v>0.107454611188782</v>
+        <v>0.06336765344255824</v>
       </c>
       <c r="F2">
-        <v>2.878803597020351</v>
+        <v>1.783065914059989</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.501337203754353</v>
+        <v>0.8848832799204516</v>
       </c>
       <c r="J2">
-        <v>0.1807450889423592</v>
+        <v>0.1032345997432103</v>
       </c>
       <c r="K2">
-        <v>0.9121141558725867</v>
+        <v>1.356849294559169</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3575122264537711</v>
+        <v>0.3908534301908304</v>
       </c>
       <c r="N2">
-        <v>2.967849150855301</v>
+        <v>1.601669748507959</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6406894837234347</v>
+        <v>0.9304061643473744</v>
       </c>
       <c r="C3">
-        <v>0.2365572323609229</v>
+        <v>0.2740461352991588</v>
       </c>
       <c r="D3">
-        <v>0.0563272542536879</v>
+        <v>0.03668096014953193</v>
       </c>
       <c r="E3">
-        <v>0.1067583391954265</v>
+        <v>0.05823720359697759</v>
       </c>
       <c r="F3">
-        <v>2.871212034085957</v>
+        <v>1.699677117208921</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.501496086960103</v>
+        <v>0.8603700078429597</v>
       </c>
       <c r="J3">
-        <v>0.180229736806524</v>
+        <v>0.09747465277558121</v>
       </c>
       <c r="K3">
-        <v>0.8708599391782172</v>
+        <v>1.184220996608303</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3475142182274098</v>
+        <v>0.3448630373896364</v>
       </c>
       <c r="N3">
-        <v>2.984003695558677</v>
+        <v>1.637348628018835</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6203843842382923</v>
+        <v>0.8465845598466046</v>
       </c>
       <c r="C4">
-        <v>0.2315308718672782</v>
+        <v>0.2515162861828344</v>
       </c>
       <c r="D4">
-        <v>0.05574239339158993</v>
+        <v>0.03355241120718944</v>
       </c>
       <c r="E4">
-        <v>0.1063766714217742</v>
+        <v>0.0551617883996407</v>
       </c>
       <c r="F4">
-        <v>2.867788914015279</v>
+        <v>1.651189241141779</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.502191119430307</v>
+        <v>0.8466530732499109</v>
       </c>
       <c r="J4">
-        <v>0.1799882657656084</v>
+        <v>0.0940824203555124</v>
       </c>
       <c r="K4">
-        <v>0.8460555906857792</v>
+        <v>1.07962744244395</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.341572948509139</v>
+        <v>0.3170593372431796</v>
       </c>
       <c r="N4">
-        <v>2.994686754515833</v>
+        <v>1.660987914823011</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6122060924509753</v>
+        <v>0.8126457959308766</v>
       </c>
       <c r="C5">
-        <v>0.2295189391074501</v>
+        <v>0.2424285890523379</v>
       </c>
       <c r="D5">
-        <v>0.05551053855075594</v>
+        <v>0.03228292210699379</v>
       </c>
       <c r="E5">
-        <v>0.1062326869378438</v>
+        <v>0.05392606863334137</v>
       </c>
       <c r="F5">
-        <v>2.866705290557533</v>
+        <v>1.632071414315959</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.502624559269769</v>
+        <v>0.8413807112554679</v>
       </c>
       <c r="J5">
-        <v>0.1799087227181673</v>
+        <v>0.09273416482061947</v>
       </c>
       <c r="K5">
-        <v>0.8360799160353167</v>
+        <v>1.037317975480903</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3392015573179208</v>
+        <v>0.3058278682490609</v>
       </c>
       <c r="N5">
-        <v>2.999232255595508</v>
+        <v>1.671041867936054</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6108539073057102</v>
+        <v>0.8070227294402343</v>
       </c>
       <c r="C6">
-        <v>0.2291870532635585</v>
+        <v>0.2409249264657518</v>
       </c>
       <c r="D6">
-        <v>0.05547243163406534</v>
+        <v>0.03207243456545683</v>
       </c>
       <c r="E6">
-        <v>0.1062094764981332</v>
+        <v>0.05372190246767516</v>
       </c>
       <c r="F6">
-        <v>2.866544158805482</v>
+        <v>1.628934504789882</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.502705602965705</v>
+        <v>0.8405239014057244</v>
       </c>
       <c r="J6">
-        <v>0.1798966539493279</v>
+        <v>0.09251228615010376</v>
       </c>
       <c r="K6">
-        <v>0.8344314551528953</v>
+        <v>1.030310346979661</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3388107943481913</v>
+        <v>0.3039685616122867</v>
       </c>
       <c r="N6">
-        <v>2.999998630959212</v>
+        <v>1.672736315660373</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6202736992587461</v>
+        <v>0.8461259986411847</v>
       </c>
       <c r="C7">
-        <v>0.2315035911224186</v>
+        <v>0.2513933617361204</v>
       </c>
       <c r="D7">
-        <v>0.05573924023191523</v>
+        <v>0.03353526927112682</v>
       </c>
       <c r="E7">
-        <v>0.106374682811559</v>
+        <v>0.05514505363769828</v>
       </c>
       <c r="F7">
-        <v>2.86777303936789</v>
+        <v>1.650928866686854</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.502196356811154</v>
+        <v>0.8465807063127215</v>
       </c>
       <c r="J7">
-        <v>0.1799871166501106</v>
+        <v>0.09406410202547022</v>
       </c>
       <c r="K7">
-        <v>0.8459205195006234</v>
+        <v>1.079055623583372</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3415407656991789</v>
+        <v>0.3169074792492168</v>
       </c>
       <c r="N7">
-        <v>2.994747279165317</v>
+        <v>1.661121821256017</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6626854175418373</v>
+        <v>1.020680881118523</v>
       </c>
       <c r="C8">
-        <v>0.2420452178236872</v>
+        <v>0.2984366588378009</v>
       </c>
       <c r="D8">
-        <v>0.0569734139296898</v>
+        <v>0.04003965937434373</v>
       </c>
       <c r="E8">
-        <v>0.1072050326718959</v>
+        <v>0.06158239350418526</v>
       </c>
       <c r="F8">
-        <v>2.875929034661169</v>
+        <v>1.75372489305272</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.501267957186954</v>
+        <v>0.8761428885904863</v>
       </c>
       <c r="J8">
-        <v>0.1805518433626361</v>
+        <v>0.1012172287723985</v>
       </c>
       <c r="K8">
-        <v>0.8977805665756193</v>
+        <v>1.297011978266653</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3540239374602052</v>
+        <v>0.3748991924705862</v>
       </c>
       <c r="N8">
-        <v>2.973260604696335</v>
+        <v>1.613603043702909</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7488863686124887</v>
+        <v>1.372201675387458</v>
       </c>
       <c r="C9">
-        <v>0.2638694768931202</v>
+        <v>0.3944949763927923</v>
       </c>
       <c r="D9">
-        <v>0.05959579168415274</v>
+        <v>0.0530156468552363</v>
       </c>
       <c r="E9">
-        <v>0.1091964447803804</v>
+        <v>0.0748596912356021</v>
       </c>
       <c r="F9">
-        <v>2.901751739211321</v>
+        <v>1.978828379641939</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.504191089102669</v>
+        <v>0.945583894309614</v>
       </c>
       <c r="J9">
-        <v>0.1822538565913092</v>
+        <v>0.1164977059673618</v>
       </c>
       <c r="K9">
-        <v>1.003655027482068</v>
+        <v>1.737452190115874</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3800704623262874</v>
+        <v>0.4925840937321269</v>
       </c>
       <c r="N9">
-        <v>2.937191387577698</v>
+        <v>1.534884170461396</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8140741764138113</v>
+        <v>1.638213821992196</v>
       </c>
       <c r="C10">
-        <v>0.2806132397455769</v>
+        <v>0.46818617517485</v>
       </c>
       <c r="D10">
-        <v>0.06164426381100441</v>
+        <v>0.06273051452861722</v>
       </c>
       <c r="E10">
-        <v>0.1108802921018324</v>
+        <v>0.08510541559490648</v>
       </c>
       <c r="F10">
-        <v>2.9267284303114</v>
+        <v>2.161567843367663</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.509237025052002</v>
+        <v>1.004928956478174</v>
       </c>
       <c r="J10">
-        <v>0.1838669668882673</v>
+        <v>0.1286509911237346</v>
       </c>
       <c r="K10">
-        <v>1.084002982979285</v>
+        <v>2.071895514297381</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4001642874106892</v>
+        <v>0.5822459098085844</v>
       </c>
       <c r="N10">
-        <v>2.914393943654531</v>
+        <v>1.486953976543873</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8441349944179137</v>
+        <v>1.761435206105347</v>
       </c>
       <c r="C11">
-        <v>0.2883861370704892</v>
+        <v>0.5025838801518603</v>
       </c>
       <c r="D11">
-        <v>0.06260233349857458</v>
+        <v>0.0672009140753218</v>
       </c>
       <c r="E11">
-        <v>0.1116941493018189</v>
+        <v>0.08989564034559905</v>
       </c>
       <c r="F11">
-        <v>2.939398102018572</v>
+        <v>2.249210867647847</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.51216346563784</v>
+        <v>1.034062693725929</v>
       </c>
       <c r="J11">
-        <v>0.1846796235977237</v>
+        <v>0.1344209829994867</v>
       </c>
       <c r="K11">
-        <v>1.121115652017437</v>
+        <v>2.227114267198317</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4095140276668587</v>
+        <v>0.6239220704278878</v>
       </c>
       <c r="N11">
-        <v>2.904827861580642</v>
+        <v>1.467568301333998</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8555767207447218</v>
+        <v>1.80846159030898</v>
       </c>
       <c r="C12">
-        <v>0.2913520679209114</v>
+        <v>0.5157533817329067</v>
       </c>
       <c r="D12">
-        <v>0.06296886942995172</v>
+        <v>0.06890211213305975</v>
       </c>
       <c r="E12">
-        <v>0.1120092046634618</v>
+        <v>0.09173023529181279</v>
       </c>
       <c r="F12">
-        <v>2.944383975270298</v>
+        <v>2.283116295602028</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>1.513362465987228</v>
+        <v>1.045432468927743</v>
       </c>
       <c r="J12">
-        <v>0.1849986920389952</v>
+        <v>0.1366443016175225</v>
       </c>
       <c r="K12">
-        <v>1.13525018844561</v>
+        <v>2.286399754759827</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4130845771538958</v>
+        <v>0.6398490668321415</v>
       </c>
       <c r="N12">
-        <v>2.901321246922762</v>
+        <v>1.460600218847432</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8531099470744437</v>
+        <v>1.798316579446322</v>
       </c>
       <c r="C13">
-        <v>0.2907122998388729</v>
+        <v>0.5129103912214248</v>
       </c>
       <c r="D13">
-        <v>0.06288976373725319</v>
+        <v>0.06853533999220218</v>
       </c>
       <c r="E13">
-        <v>0.1119410468004567</v>
+        <v>0.09133417005743638</v>
       </c>
       <c r="F13">
-        <v>2.943301808790238</v>
+        <v>2.275781120644766</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.513100199210683</v>
+        <v>1.042968265402187</v>
       </c>
       <c r="J13">
-        <v>0.184929470976904</v>
+        <v>0.1361637030956118</v>
       </c>
       <c r="K13">
-        <v>1.132202471241754</v>
+        <v>2.273607894224824</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4123142615817059</v>
+        <v>0.6364121539633132</v>
       </c>
       <c r="N13">
-        <v>2.902071304036454</v>
+        <v>1.462083910484452</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8450751434208428</v>
+        <v>1.765296491467296</v>
       </c>
       <c r="C14">
-        <v>0.2886296946397522</v>
+        <v>0.5036643508940415</v>
       </c>
       <c r="D14">
-        <v>0.06263241395011221</v>
+        <v>0.06734069909037999</v>
       </c>
       <c r="E14">
-        <v>0.1117199316067534</v>
+        <v>0.09004614759072638</v>
       </c>
       <c r="F14">
-        <v>2.939804521514858</v>
+        <v>2.251985508018024</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.512260287461203</v>
+        <v>1.034991146030833</v>
       </c>
       <c r="J14">
-        <v>0.1847056464470711</v>
+        <v>0.1346031061741613</v>
       </c>
       <c r="K14">
-        <v>1.122276890207416</v>
+        <v>2.231981155402309</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4098071777994647</v>
+        <v>0.6252293798917705</v>
       </c>
       <c r="N14">
-        <v>2.904537047518744</v>
+        <v>1.466987407650592</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8401611892975325</v>
+        <v>1.745119758990171</v>
       </c>
       <c r="C15">
-        <v>0.2873569712158996</v>
+        <v>0.4980201801112969</v>
       </c>
       <c r="D15">
-        <v>0.0624752652975431</v>
+        <v>0.06661006671198777</v>
       </c>
       <c r="E15">
-        <v>0.1115853857046147</v>
+        <v>0.08925994820478067</v>
       </c>
       <c r="F15">
-        <v>2.937686837126506</v>
+        <v>2.237505494670089</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.511757647259635</v>
+        <v>1.030149820024633</v>
       </c>
       <c r="J15">
-        <v>0.1845700232117338</v>
+        <v>0.1336523032075831</v>
       </c>
       <c r="K15">
-        <v>1.116207703336698</v>
+        <v>2.206551697446287</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4082754229960059</v>
+        <v>0.6183990525161818</v>
       </c>
       <c r="N15">
-        <v>2.906062478721097</v>
+        <v>1.47004028590473</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8121178022983031</v>
+        <v>1.630209440602442</v>
       </c>
       <c r="C16">
-        <v>0.2801084083550336</v>
+        <v>0.4659573132076957</v>
       </c>
       <c r="D16">
-        <v>0.06158217626491336</v>
+        <v>0.06243947531738314</v>
       </c>
       <c r="E16">
-        <v>0.1108280662874463</v>
+        <v>0.0847951366149573</v>
       </c>
       <c r="F16">
-        <v>2.925926759590254</v>
+        <v>2.155936650627424</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.509058479864883</v>
+        <v>1.003070517366332</v>
       </c>
       <c r="J16">
-        <v>0.183815444001965</v>
+        <v>0.1282790692861226</v>
       </c>
       <c r="K16">
-        <v>1.08158888793227</v>
+        <v>2.061818957044608</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3995574610409705</v>
+        <v>0.579541602575695</v>
       </c>
       <c r="N16">
-        <v>2.915035313083294</v>
+        <v>1.488271626981643</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7950181387378734</v>
+        <v>1.560314204294031</v>
       </c>
       <c r="C17">
-        <v>0.2757016667407299</v>
+        <v>0.4465241970821126</v>
       </c>
       <c r="D17">
-        <v>0.06104098427133664</v>
+        <v>0.05989472190835698</v>
       </c>
       <c r="E17">
-        <v>0.1103757223726269</v>
+        <v>0.08209065078840894</v>
       </c>
       <c r="F17">
-        <v>2.919047326553283</v>
+        <v>2.107099216173694</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.507564304104697</v>
+        <v>0.9870262216385655</v>
       </c>
       <c r="J17">
-        <v>0.1833727246172003</v>
+        <v>0.1250470750269059</v>
       </c>
       <c r="K17">
-        <v>1.060495274545502</v>
+        <v>1.973862871262639</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.394262762638462</v>
+        <v>0.5559432513598708</v>
       </c>
       <c r="N17">
-        <v>2.920746039301122</v>
+        <v>1.500092413501534</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7852211383547569</v>
+        <v>1.520317362832287</v>
       </c>
       <c r="C18">
-        <v>0.273181712445222</v>
+        <v>0.4354279857988388</v>
       </c>
       <c r="D18">
-        <v>0.06073217387625363</v>
+        <v>0.05843578698996055</v>
       </c>
       <c r="E18">
-        <v>0.1101200526046746</v>
+        <v>0.08054714903980198</v>
       </c>
       <c r="F18">
-        <v>2.915213534155967</v>
+        <v>2.079429667751114</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.50676428320196</v>
+        <v>0.9779971840081032</v>
       </c>
       <c r="J18">
-        <v>0.1831255056457906</v>
+        <v>0.1232106026385651</v>
       </c>
       <c r="K18">
-        <v>1.0484156843942</v>
+        <v>1.92355842515741</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3912370627674235</v>
+        <v>0.5424526074505422</v>
       </c>
       <c r="N18">
-        <v>2.924106420233088</v>
+        <v>1.507117369214427</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7819106194916685</v>
+        <v>1.506808970434349</v>
       </c>
       <c r="C19">
-        <v>0.2723310199090747</v>
+        <v>0.4316844262785935</v>
       </c>
       <c r="D19">
-        <v>0.06062804103572716</v>
+        <v>0.05794260139335705</v>
       </c>
       <c r="E19">
-        <v>0.1100342617549934</v>
+        <v>0.08002655590358643</v>
       </c>
       <c r="F19">
-        <v>2.913936613159876</v>
+        <v>2.07013148294152</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.506503607648838</v>
+        <v>0.9749734507393555</v>
       </c>
       <c r="J19">
-        <v>0.1830430763521136</v>
+        <v>0.1225925611575818</v>
       </c>
       <c r="K19">
-        <v>1.044334829292069</v>
+        <v>1.906573374717283</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3902159925305355</v>
+        <v>0.537898574078838</v>
       </c>
       <c r="N19">
-        <v>2.925257188238874</v>
+        <v>1.50953397886542</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7968344667633573</v>
+        <v>1.567733121890711</v>
       </c>
       <c r="C20">
-        <v>0.2761692514380343</v>
+        <v>0.4485843565487926</v>
       </c>
       <c r="D20">
-        <v>0.06109833980055868</v>
+        <v>0.06016511764077137</v>
       </c>
       <c r="E20">
-        <v>0.1104234088802762</v>
+        <v>0.08237728695012336</v>
       </c>
       <c r="F20">
-        <v>2.919766915333142</v>
+        <v>2.112254058137509</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.507717214491414</v>
+        <v>0.9887133369762182</v>
       </c>
       <c r="J20">
-        <v>0.1834190847895272</v>
+        <v>0.1253887739347235</v>
       </c>
       <c r="K20">
-        <v>1.062735251206504</v>
+        <v>1.983195941582011</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3948243567975993</v>
+        <v>0.5584466766442304</v>
       </c>
       <c r="N20">
-        <v>2.920130284660658</v>
+        <v>1.498810510988037</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8474335774073154</v>
+        <v>1.774984984468091</v>
       </c>
       <c r="C21">
-        <v>0.2892407950537006</v>
+        <v>0.5063760811772227</v>
       </c>
       <c r="D21">
-        <v>0.06270790269689286</v>
+        <v>0.06769135880438881</v>
       </c>
       <c r="E21">
-        <v>0.1117846923180679</v>
+        <v>0.09042389369232495</v>
       </c>
       <c r="F21">
-        <v>2.940826652537424</v>
+        <v>2.258954826712852</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.512504524392661</v>
+        <v>1.037324806500244</v>
       </c>
       <c r="J21">
-        <v>0.1847710816003598</v>
+        <v>0.135060419903283</v>
       </c>
       <c r="K21">
-        <v>1.125190082055411</v>
+        <v>2.244193616705076</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4105427550616909</v>
+        <v>0.6285099461325885</v>
       </c>
       <c r="N21">
-        <v>2.903809653421064</v>
+        <v>1.465536799901017</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8808430603184547</v>
+        <v>1.912589442204109</v>
       </c>
       <c r="C22">
-        <v>0.2979149996755552</v>
+        <v>0.5449943768333299</v>
       </c>
       <c r="D22">
-        <v>0.06378160459404825</v>
+        <v>0.07265942880274423</v>
       </c>
       <c r="E22">
-        <v>0.1127143778317503</v>
+        <v>0.09580420797477984</v>
       </c>
       <c r="F22">
-        <v>2.955687105282422</v>
+        <v>2.359047264937146</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.516162720722221</v>
+        <v>1.071078299289823</v>
       </c>
       <c r="J22">
-        <v>0.1857207449623104</v>
+        <v>0.1416068604477161</v>
       </c>
       <c r="K22">
-        <v>1.166478722782699</v>
+        <v>2.417763528904032</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4209905147919315</v>
+        <v>0.6751555969654177</v>
       </c>
       <c r="N22">
-        <v>2.893818531908082</v>
+        <v>1.445977274026475</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8629807143668984</v>
+        <v>1.838933548945647</v>
       </c>
       <c r="C23">
-        <v>0.2932733889665542</v>
+        <v>0.524299049959069</v>
       </c>
       <c r="D23">
-        <v>0.06320656957949922</v>
+        <v>0.07000301197224701</v>
       </c>
       <c r="E23">
-        <v>0.1122145322810937</v>
+        <v>0.0929208041167584</v>
       </c>
       <c r="F23">
-        <v>2.947655418055291</v>
+        <v>2.305216241227541</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.514161803800746</v>
+        <v>1.052871256769855</v>
       </c>
       <c r="J23">
-        <v>0.1852078491927003</v>
+        <v>0.1380909802706896</v>
       </c>
       <c r="K23">
-        <v>1.144399131689909</v>
+        <v>2.324829095651637</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4153983611092755</v>
+        <v>0.6501755044772324</v>
       </c>
       <c r="N23">
-        <v>2.8990891345628</v>
+        <v>1.456207504625297</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7960131994960307</v>
+        <v>1.564378450725798</v>
       </c>
       <c r="C24">
-        <v>0.2759578142250234</v>
+        <v>0.4476527226133555</v>
       </c>
       <c r="D24">
-        <v>0.0610724021122806</v>
+        <v>0.0600428591043638</v>
       </c>
       <c r="E24">
-        <v>0.1104018361385926</v>
+        <v>0.08224766356145352</v>
       </c>
       <c r="F24">
-        <v>2.919441211440727</v>
+        <v>2.109922289104844</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.507647899917032</v>
+        <v>0.9879499868619845</v>
       </c>
       <c r="J24">
-        <v>0.1833981025973941</v>
+        <v>0.125234224712365</v>
       </c>
       <c r="K24">
-        <v>1.061722410081103</v>
+        <v>1.978975647124656</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3945704030956279</v>
+        <v>0.5573146415135426</v>
       </c>
       <c r="N24">
-        <v>2.9204084268207</v>
+        <v>1.499389347614368</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7252413710147039</v>
+        <v>1.275909770485839</v>
       </c>
       <c r="C25">
-        <v>0.2578413610759185</v>
+        <v>0.3680230852386046</v>
       </c>
       <c r="D25">
-        <v>0.05886487493758352</v>
+        <v>0.04947705311193573</v>
       </c>
       <c r="E25">
-        <v>0.1086189053800446</v>
+        <v>0.07118875685771187</v>
       </c>
       <c r="F25">
-        <v>2.893712463016072</v>
+        <v>1.915117670283081</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.502891803042679</v>
+        <v>0.9254393707223514</v>
       </c>
       <c r="J25">
-        <v>0.1817297464406664</v>
+        <v>0.1122137788949402</v>
       </c>
       <c r="K25">
-        <v>0.9745644049953057</v>
+        <v>1.61662100385584</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3728562075692992</v>
+        <v>0.4602460217444317</v>
       </c>
       <c r="N25">
-        <v>2.946299194559444</v>
+        <v>1.554524784854365</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.06852740553677</v>
+        <v>3.394163896074588</v>
       </c>
       <c r="C2">
-        <v>0.3114134496529744</v>
+        <v>1.477841443234354</v>
       </c>
       <c r="D2">
-        <v>0.04181536838101607</v>
+        <v>0.02500029998905973</v>
       </c>
       <c r="E2">
-        <v>0.06336765344255824</v>
+        <v>0.121132741723688</v>
       </c>
       <c r="F2">
-        <v>1.783065914059989</v>
+        <v>3.071285375219219</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.0002185501071867435</v>
       </c>
       <c r="I2">
-        <v>0.8848832799204516</v>
+        <v>0.001010575588249019</v>
       </c>
       <c r="J2">
-        <v>0.1032345997432103</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>1.356849294559169</v>
+        <v>1.309691010664338</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2663980967732584</v>
       </c>
       <c r="M2">
-        <v>0.3908534301908304</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.601669748507959</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9304061643473744</v>
+        <v>2.95280972421898</v>
       </c>
       <c r="C3">
-        <v>0.2740461352991588</v>
+        <v>1.282968189645374</v>
       </c>
       <c r="D3">
-        <v>0.03668096014953193</v>
+        <v>0.02179527346859444</v>
       </c>
       <c r="E3">
-        <v>0.05823720359697759</v>
+        <v>0.1054849762635328</v>
       </c>
       <c r="F3">
-        <v>1.699677117208921</v>
+        <v>2.774969465023332</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.00150840960164822</v>
+      </c>
+      <c r="I3">
+        <v>0.00269214907431925</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0.8603700078429597</v>
-      </c>
-      <c r="J3">
-        <v>0.09747465277558121</v>
-      </c>
       <c r="K3">
-        <v>1.184220996608303</v>
+        <v>1.206833796000055</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2319362235918874</v>
       </c>
       <c r="M3">
-        <v>0.3448630373896364</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.637348628018835</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8465845598466046</v>
+        <v>2.682682564162235</v>
       </c>
       <c r="C4">
-        <v>0.2515162861828344</v>
+        <v>1.164738467916322</v>
       </c>
       <c r="D4">
-        <v>0.03355241120718944</v>
+        <v>0.01990639671680583</v>
       </c>
       <c r="E4">
-        <v>0.0551617883996407</v>
+        <v>0.09600089455502925</v>
       </c>
       <c r="F4">
-        <v>1.651189241141779</v>
+        <v>2.593706228813517</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.002920354535049352</v>
+      </c>
+      <c r="I4">
+        <v>0.004363349848210962</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0.8466530732499109</v>
-      </c>
-      <c r="J4">
-        <v>0.0940824203555124</v>
-      </c>
       <c r="K4">
-        <v>1.07962744244395</v>
+        <v>1.143603733172768</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2109374086413496</v>
       </c>
       <c r="M4">
-        <v>0.3170593372431796</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.660987914823011</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8126457959308766</v>
+        <v>2.572749486579426</v>
       </c>
       <c r="C5">
-        <v>0.2424285890523379</v>
+        <v>1.117962904872684</v>
       </c>
       <c r="D5">
-        <v>0.03228292210699379</v>
+        <v>0.01930510222166149</v>
       </c>
       <c r="E5">
-        <v>0.05392606863334137</v>
+        <v>0.09225028330660834</v>
       </c>
       <c r="F5">
-        <v>1.632071414315959</v>
+        <v>2.515206366849071</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.00364634761084015</v>
+      </c>
+      <c r="I5">
+        <v>0.005275566090288564</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0.8413807112554679</v>
-      </c>
-      <c r="J5">
-        <v>0.09273416482061947</v>
-      </c>
       <c r="K5">
-        <v>1.037317975480903</v>
+        <v>1.114727099314564</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2023129771245564</v>
       </c>
       <c r="M5">
-        <v>0.3058278682490609</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.671041867936054</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8070227294402343</v>
+        <v>2.554480246699541</v>
       </c>
       <c r="C6">
-        <v>0.2409249264657518</v>
+        <v>1.111548126933883</v>
       </c>
       <c r="D6">
-        <v>0.03207243456545683</v>
+        <v>0.01939114276736831</v>
       </c>
       <c r="E6">
-        <v>0.05372190246767516</v>
+        <v>0.09173654472983017</v>
       </c>
       <c r="F6">
-        <v>1.628934504789882</v>
+        <v>2.496378687628038</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.003781125389659357</v>
+      </c>
+      <c r="I6">
+        <v>0.005542883772439389</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0.8405239014057244</v>
-      </c>
-      <c r="J6">
-        <v>0.09251228615010376</v>
-      </c>
       <c r="K6">
-        <v>1.030310346979661</v>
+        <v>1.106181209356635</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2007620696758252</v>
       </c>
       <c r="M6">
-        <v>0.3039685616122867</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.672736315660373</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8461259986411847</v>
+        <v>2.681126030655832</v>
       </c>
       <c r="C7">
-        <v>0.2513933617361204</v>
+        <v>1.167757876959115</v>
       </c>
       <c r="D7">
-        <v>0.03353526927112682</v>
+        <v>0.02040292217282413</v>
       </c>
       <c r="E7">
-        <v>0.05514505363769828</v>
+        <v>0.09624479115406714</v>
       </c>
       <c r="F7">
-        <v>1.650928866686854</v>
+        <v>2.576770619463204</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.002942909553757866</v>
+      </c>
+      <c r="I7">
+        <v>0.004647455382480459</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0.8465807063127215</v>
-      </c>
-      <c r="J7">
-        <v>0.09406410202547022</v>
-      </c>
       <c r="K7">
-        <v>1.079055623583372</v>
+        <v>1.132948764645391</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2104895814333787</v>
       </c>
       <c r="M7">
-        <v>0.3169074792492168</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.661121821256017</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.020680881118523</v>
+        <v>3.241631848515681</v>
       </c>
       <c r="C8">
-        <v>0.2984366588378009</v>
+        <v>1.415192704478329</v>
       </c>
       <c r="D8">
-        <v>0.04003965937434373</v>
+        <v>0.02455109663968713</v>
       </c>
       <c r="E8">
-        <v>0.06158239350418526</v>
+        <v>0.1161024693802766</v>
       </c>
       <c r="F8">
-        <v>1.75372489305272</v>
+        <v>2.947774536879507</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.0005358857613355639</v>
+      </c>
+      <c r="I8">
+        <v>0.001760217083649707</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0.8761428885904863</v>
-      </c>
-      <c r="J8">
-        <v>0.1012172287723985</v>
-      </c>
       <c r="K8">
-        <v>1.297011978266653</v>
+        <v>1.260550378922062</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.25402682880366</v>
       </c>
       <c r="M8">
-        <v>0.3748991924705862</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.613603043702909</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.372201675387458</v>
+        <v>4.350506305246029</v>
       </c>
       <c r="C9">
-        <v>0.3944949763927923</v>
+        <v>1.907228844207282</v>
       </c>
       <c r="D9">
-        <v>0.0530156468552363</v>
+        <v>0.0324765319348046</v>
       </c>
       <c r="E9">
-        <v>0.0748596912356021</v>
+        <v>0.1557182846454879</v>
       </c>
       <c r="F9">
-        <v>1.978828379641939</v>
+        <v>3.712327559526187</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.001211207684465698</v>
+      </c>
+      <c r="I9">
+        <v>0.001324598402592692</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0.945583894309614</v>
-      </c>
-      <c r="J9">
-        <v>0.1164977059673618</v>
-      </c>
       <c r="K9">
-        <v>1.737452190115874</v>
+        <v>1.529781037874059</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3417436431028165</v>
       </c>
       <c r="M9">
-        <v>0.4925840937321269</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.534884170461396</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.638213821992196</v>
+        <v>5.173619317471207</v>
       </c>
       <c r="C10">
-        <v>0.46818617517485</v>
+        <v>2.267141761856692</v>
       </c>
       <c r="D10">
-        <v>0.06273051452861722</v>
+        <v>0.03859482808565673</v>
       </c>
       <c r="E10">
-        <v>0.08510541559490648</v>
+        <v>0.1787822177029099</v>
       </c>
       <c r="F10">
-        <v>2.161567843367663</v>
+        <v>4.185171060825269</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.005596376155897254</v>
+      </c>
+      <c r="I10">
+        <v>0.005207828103276135</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>1.004928956478174</v>
-      </c>
-      <c r="J10">
-        <v>0.1286509911237346</v>
-      </c>
       <c r="K10">
-        <v>2.071895514297381</v>
+        <v>1.681418852996188</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3895604181847716</v>
       </c>
       <c r="M10">
-        <v>0.5822459098085844</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.486953976543873</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.761435206105347</v>
+        <v>5.538392306150172</v>
       </c>
       <c r="C11">
-        <v>0.5025838801518603</v>
+        <v>2.3098491205713</v>
       </c>
       <c r="D11">
-        <v>0.0672009140753218</v>
+        <v>0.03806768740928135</v>
       </c>
       <c r="E11">
-        <v>0.08989564034559905</v>
+        <v>0.1325168463068778</v>
       </c>
       <c r="F11">
-        <v>2.249210867647847</v>
+        <v>3.621096065932107</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02435834985855578</v>
+      </c>
+      <c r="I11">
+        <v>0.006983104198803325</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>1.034062693725929</v>
-      </c>
-      <c r="J11">
-        <v>0.1344209829994867</v>
-      </c>
       <c r="K11">
-        <v>2.227114267198317</v>
+        <v>1.382407167819707</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.269848975965715</v>
       </c>
       <c r="M11">
-        <v>0.6239220704278878</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.467568301333998</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.80846159030898</v>
+        <v>5.67194386577728</v>
       </c>
       <c r="C12">
-        <v>0.5157533817329067</v>
+        <v>2.261864183812406</v>
       </c>
       <c r="D12">
-        <v>0.06890211213305975</v>
+        <v>0.0356057569815178</v>
       </c>
       <c r="E12">
-        <v>0.09173023529181279</v>
+        <v>0.09592795416804734</v>
       </c>
       <c r="F12">
-        <v>2.283116295602028</v>
+        <v>3.10583858810017</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.06242866385624524</v>
+      </c>
+      <c r="I12">
+        <v>0.007010957288359876</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>1.045432468927743</v>
-      </c>
-      <c r="J12">
-        <v>0.1366443016175225</v>
-      </c>
       <c r="K12">
-        <v>2.286399754759827</v>
+        <v>1.138519440257468</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1818064050802022</v>
       </c>
       <c r="M12">
-        <v>0.6398490668321415</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.460600218847432</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.798316579446322</v>
+        <v>5.633658825237433</v>
       </c>
       <c r="C13">
-        <v>0.5129103912214248</v>
+        <v>2.147647971897356</v>
       </c>
       <c r="D13">
-        <v>0.06853533999220218</v>
+        <v>0.03222692528053273</v>
       </c>
       <c r="E13">
-        <v>0.09133417005743638</v>
+        <v>0.06537114479844419</v>
       </c>
       <c r="F13">
-        <v>2.275781120644766</v>
+        <v>2.576368615624219</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.116963836390795</v>
+      </c>
+      <c r="I13">
+        <v>0.00597764103548748</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>1.042968265402187</v>
-      </c>
-      <c r="J13">
-        <v>0.1361637030956118</v>
-      </c>
       <c r="K13">
-        <v>2.273607894224824</v>
+        <v>0.907674059402936</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1131720327241581</v>
       </c>
       <c r="M13">
-        <v>0.6364121539633132</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.462083910484452</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.765296491467296</v>
+        <v>5.529402248746862</v>
       </c>
       <c r="C14">
-        <v>0.5036643508940415</v>
+        <v>2.039798107036745</v>
       </c>
       <c r="D14">
-        <v>0.06734069909037999</v>
+        <v>0.02957586772016896</v>
       </c>
       <c r="E14">
-        <v>0.09004614759072638</v>
+        <v>0.04802394616657679</v>
       </c>
       <c r="F14">
-        <v>2.251985508018024</v>
+        <v>2.204453724876032</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1653220714512713</v>
+      </c>
+      <c r="I14">
+        <v>0.004974920627187629</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>1.034991146030833</v>
-      </c>
-      <c r="J14">
-        <v>0.1346031061741613</v>
-      </c>
       <c r="K14">
-        <v>2.231981155402309</v>
+        <v>0.7545311621919453</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07741205068568391</v>
       </c>
       <c r="M14">
-        <v>0.6252293798917705</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.466987407650592</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.745119758990171</v>
+        <v>5.4674326299928</v>
       </c>
       <c r="C15">
-        <v>0.4980201801112969</v>
+        <v>2.001330941243737</v>
       </c>
       <c r="D15">
-        <v>0.06661006671198777</v>
+        <v>0.02887879987572362</v>
       </c>
       <c r="E15">
-        <v>0.08925994820478067</v>
+        <v>0.0441640533341765</v>
       </c>
       <c r="F15">
-        <v>2.237505494670089</v>
+        <v>2.1029158661119</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1774520167458036</v>
+      </c>
+      <c r="I15">
+        <v>0.004658194283865491</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>1.030149820024633</v>
-      </c>
-      <c r="J15">
-        <v>0.1336523032075831</v>
-      </c>
       <c r="K15">
-        <v>2.206551697446287</v>
+        <v>0.7147928029931307</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06999541219821026</v>
       </c>
       <c r="M15">
-        <v>0.6183990525161818</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.47004028590473</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.630209440602442</v>
+        <v>5.119661103626527</v>
       </c>
       <c r="C16">
-        <v>0.4659573132076957</v>
+        <v>1.874662692829077</v>
       </c>
       <c r="D16">
-        <v>0.06243947531738314</v>
+        <v>0.0270747363364201</v>
       </c>
       <c r="E16">
-        <v>0.0847951366149573</v>
+        <v>0.04181024542659628</v>
       </c>
       <c r="F16">
-        <v>2.155936650627424</v>
+        <v>2.015103998125738</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1632711561871076</v>
+      </c>
+      <c r="I16">
+        <v>0.003198669194582671</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>1.003070517366332</v>
-      </c>
-      <c r="J16">
-        <v>0.1282790692861226</v>
-      </c>
       <c r="K16">
-        <v>2.061818957044608</v>
+        <v>0.6980637960154255</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06663194891079982</v>
       </c>
       <c r="M16">
-        <v>0.579541602575695</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.488271626981643</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.560314204294031</v>
+        <v>4.908996849464017</v>
       </c>
       <c r="C17">
-        <v>0.4465241970821126</v>
+        <v>1.834697301471977</v>
       </c>
       <c r="D17">
-        <v>0.05989472190835698</v>
+        <v>0.02715838425924488</v>
       </c>
       <c r="E17">
-        <v>0.08209065078840894</v>
+        <v>0.04833047870240925</v>
       </c>
       <c r="F17">
-        <v>2.107099216173694</v>
+        <v>2.13841123379801</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.124921933408686</v>
+      </c>
+      <c r="I17">
+        <v>0.002675062757264257</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0.9870262216385655</v>
-      </c>
-      <c r="J17">
-        <v>0.1250470750269059</v>
-      </c>
       <c r="K17">
-        <v>1.973862871262639</v>
+        <v>0.762721996083549</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08040665247997936</v>
       </c>
       <c r="M17">
-        <v>0.5559432513598708</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.500092413501534</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.520317362832287</v>
+        <v>4.791181370062532</v>
       </c>
       <c r="C18">
-        <v>0.4354279857988388</v>
+        <v>1.860897746545504</v>
       </c>
       <c r="D18">
-        <v>0.05843578698996055</v>
+        <v>0.02853096666392574</v>
       </c>
       <c r="E18">
-        <v>0.08054714903980198</v>
+        <v>0.06697150776192018</v>
       </c>
       <c r="F18">
-        <v>2.079429667751114</v>
+        <v>2.486625600656609</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07207215535779454</v>
+      </c>
+      <c r="I18">
+        <v>0.00236483514343977</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0.9779971840081032</v>
-      </c>
-      <c r="J18">
-        <v>0.1232106026385651</v>
-      </c>
       <c r="K18">
-        <v>1.92355842515741</v>
+        <v>0.9232121612200572</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1217562278411108</v>
       </c>
       <c r="M18">
-        <v>0.5424526074505422</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.507117369214427</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.506808970434349</v>
+        <v>4.756125565629304</v>
       </c>
       <c r="C19">
-        <v>0.4316844262785935</v>
+        <v>1.945727044133605</v>
       </c>
       <c r="D19">
-        <v>0.05794260139335705</v>
+        <v>0.03175096270166478</v>
       </c>
       <c r="E19">
-        <v>0.08002655590358643</v>
+        <v>0.1003759980494401</v>
       </c>
       <c r="F19">
-        <v>2.07013148294152</v>
+        <v>2.999941900849905</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02736665219971002</v>
+      </c>
+      <c r="I19">
+        <v>0.002737227667058306</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0.9749734507393555</v>
-      </c>
-      <c r="J19">
-        <v>0.1225925611575818</v>
-      </c>
       <c r="K19">
-        <v>1.906573374717283</v>
+        <v>1.155512299154125</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1992083191037608</v>
       </c>
       <c r="M19">
-        <v>0.537898574078838</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.50953397886542</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.567733121890711</v>
+        <v>4.956024645222442</v>
       </c>
       <c r="C20">
-        <v>0.4485843565487926</v>
+        <v>2.182824883562773</v>
       </c>
       <c r="D20">
-        <v>0.06016511764077137</v>
+        <v>0.03856518594107428</v>
       </c>
       <c r="E20">
-        <v>0.08237728695012336</v>
+        <v>0.1732839912203303</v>
       </c>
       <c r="F20">
-        <v>2.112254058137509</v>
+        <v>4.006303667343445</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.004089195740880847</v>
+      </c>
+      <c r="I20">
+        <v>0.004545557777880127</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0.9887133369762182</v>
-      </c>
-      <c r="J20">
-        <v>0.1253887739347235</v>
-      </c>
       <c r="K20">
-        <v>1.983195941582011</v>
+        <v>1.607376344017851</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3750257666793715</v>
       </c>
       <c r="M20">
-        <v>0.5584466766442304</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.498810510988037</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.774984984468091</v>
+        <v>5.594149570752393</v>
       </c>
       <c r="C21">
-        <v>0.5063760811772227</v>
+        <v>2.484059932299033</v>
       </c>
       <c r="D21">
-        <v>0.06769135880438881</v>
+        <v>0.04392863579358419</v>
       </c>
       <c r="E21">
-        <v>0.09042389369232495</v>
+        <v>0.2024853013280179</v>
       </c>
       <c r="F21">
-        <v>2.258954826712852</v>
+        <v>4.523540884190737</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.009138161843623066</v>
+      </c>
+      <c r="I21">
+        <v>0.009145513089012347</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>1.037324806500244</v>
-      </c>
-      <c r="J21">
-        <v>0.135060419903283</v>
-      </c>
       <c r="K21">
-        <v>2.244193616705076</v>
+        <v>1.79768702372634</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4407655202153791</v>
       </c>
       <c r="M21">
-        <v>0.6285099461325885</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.465536799901017</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.912589442204109</v>
+        <v>6.014116729995237</v>
       </c>
       <c r="C22">
-        <v>0.5449943768333299</v>
+        <v>2.671771158289516</v>
       </c>
       <c r="D22">
-        <v>0.07265942880274423</v>
+        <v>0.04661136387407083</v>
       </c>
       <c r="E22">
-        <v>0.09580420797477984</v>
+        <v>0.2177855558298702</v>
       </c>
       <c r="F22">
-        <v>2.359047264937146</v>
+        <v>4.840488372749121</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.01339876303837573</v>
+      </c>
+      <c r="I22">
+        <v>0.01290963988192839</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>1.071078299289823</v>
-      </c>
-      <c r="J22">
-        <v>0.1416068604477161</v>
-      </c>
       <c r="K22">
-        <v>2.417763528904032</v>
+        <v>1.915043218284609</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4755539395264492</v>
       </c>
       <c r="M22">
-        <v>0.6751555969654177</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.445977274026475</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.838933548945647</v>
+        <v>5.789913702386514</v>
       </c>
       <c r="C23">
-        <v>0.524299049959069</v>
+        <v>2.566835541457067</v>
       </c>
       <c r="D23">
-        <v>0.07000301197224701</v>
+        <v>0.04453323600469616</v>
       </c>
       <c r="E23">
-        <v>0.0929208041167584</v>
+        <v>0.2092253861663806</v>
       </c>
       <c r="F23">
-        <v>2.305216241227541</v>
+        <v>4.690263794889177</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.01105553229054468</v>
+      </c>
+      <c r="I23">
+        <v>0.01055765175593137</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>1.052871256769855</v>
-      </c>
-      <c r="J23">
-        <v>0.1380909802706896</v>
-      </c>
       <c r="K23">
-        <v>2.324829095651637</v>
+        <v>1.864709440117906</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4573700233234774</v>
       </c>
       <c r="M23">
-        <v>0.6501755044772324</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.456207504625297</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.564378450725798</v>
+        <v>4.947022749342295</v>
       </c>
       <c r="C24">
-        <v>0.4476527226133555</v>
+        <v>2.182836404529837</v>
       </c>
       <c r="D24">
-        <v>0.0600428591043638</v>
+        <v>0.03792786089078248</v>
       </c>
       <c r="E24">
-        <v>0.08224766356145352</v>
+        <v>0.1780166772919074</v>
       </c>
       <c r="F24">
-        <v>2.109922289104844</v>
+        <v>4.098331317047126</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.004139792853662616</v>
+      </c>
+      <c r="I24">
+        <v>0.004152764471914594</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0.9879499868619845</v>
-      </c>
-      <c r="J24">
-        <v>0.125234224712365</v>
-      </c>
       <c r="K24">
-        <v>1.978975647124656</v>
+        <v>1.656778278219647</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3889534940056052</v>
       </c>
       <c r="M24">
-        <v>0.5573146415135426</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.499389347614368</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.275909770485839</v>
+        <v>4.04883194408643</v>
       </c>
       <c r="C25">
-        <v>0.3680230852386046</v>
+        <v>1.779081221584647</v>
       </c>
       <c r="D25">
-        <v>0.04947705311193573</v>
+        <v>0.03118610227588192</v>
       </c>
       <c r="E25">
-        <v>0.07118875685771187</v>
+        <v>0.145383408301246</v>
       </c>
       <c r="F25">
-        <v>1.915117670283081</v>
+        <v>3.475011024075712</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.0003699627330684407</v>
+      </c>
+      <c r="I25">
+        <v>0.001162641811750298</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0.9254393707223514</v>
-      </c>
-      <c r="J25">
-        <v>0.1122137788949402</v>
-      </c>
       <c r="K25">
-        <v>1.61662100385584</v>
+        <v>1.437941228614534</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3171258696837924</v>
       </c>
       <c r="M25">
-        <v>0.4602460217444317</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.554524784854365</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.394163896074588</v>
+        <v>3.403004853496157</v>
       </c>
       <c r="C2">
-        <v>1.477841443234354</v>
+        <v>1.671592827364975</v>
       </c>
       <c r="D2">
-        <v>0.02500029998905973</v>
+        <v>0.05919514131935699</v>
       </c>
       <c r="E2">
-        <v>0.121132741723688</v>
+        <v>0.1399693407323959</v>
       </c>
       <c r="F2">
-        <v>3.071285375219219</v>
+        <v>2.31215035730213</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0002185501071867435</v>
+        <v>9.489237790161198E-05</v>
       </c>
       <c r="I2">
-        <v>0.001010575588249019</v>
+        <v>0.000668227949343958</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>1.309691010664338</v>
+        <v>0.8287652877164078</v>
       </c>
       <c r="L2">
-        <v>0.2663980967732584</v>
+        <v>0.3654911423207139</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2630566198155933</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2546498524485372</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.95280972421898</v>
+        <v>2.961489856868411</v>
       </c>
       <c r="C3">
-        <v>1.282968189645374</v>
+        <v>1.447674623197599</v>
       </c>
       <c r="D3">
-        <v>0.02179527346859444</v>
+        <v>0.05089416473346375</v>
       </c>
       <c r="E3">
-        <v>0.1054849762635328</v>
+        <v>0.1220287585034896</v>
       </c>
       <c r="F3">
-        <v>2.774969465023332</v>
+        <v>2.122877847691598</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.00150840960164822</v>
+        <v>0.001022643072692286</v>
       </c>
       <c r="I3">
-        <v>0.00269214907431925</v>
+        <v>0.001540481168404106</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>1.206833796000055</v>
+        <v>0.7890756657959557</v>
       </c>
       <c r="L3">
-        <v>0.2319362235918874</v>
+        <v>0.3588131315837515</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2404625479543299</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2230474539451279</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.682682564162235</v>
+        <v>2.690782597357497</v>
       </c>
       <c r="C4">
-        <v>1.164738467916322</v>
+        <v>1.311763009114884</v>
       </c>
       <c r="D4">
-        <v>0.01990639671680583</v>
+        <v>0.04593461200280302</v>
       </c>
       <c r="E4">
-        <v>0.09600089455502925</v>
+        <v>0.111129915110201</v>
       </c>
       <c r="F4">
-        <v>2.593706228813517</v>
+        <v>2.006817667825416</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.002920354535049352</v>
+        <v>0.002120953197757069</v>
       </c>
       <c r="I4">
-        <v>0.004363349848210962</v>
+        <v>0.002563650683992336</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>1.143603733172768</v>
+        <v>0.7644883971948531</v>
       </c>
       <c r="L4">
-        <v>0.2109374086413496</v>
+        <v>0.35423345510209</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2274818919491146</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2037329312976652</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.572749486579426</v>
+        <v>2.580501917434674</v>
       </c>
       <c r="C5">
-        <v>1.117962904872684</v>
+        <v>1.257675320100191</v>
       </c>
       <c r="D5">
-        <v>0.01930510222166149</v>
+        <v>0.04412997848889688</v>
       </c>
       <c r="E5">
-        <v>0.09225028330660834</v>
+        <v>0.1067897150902617</v>
       </c>
       <c r="F5">
-        <v>2.515206366849071</v>
+        <v>1.956173902988695</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.00364634761084015</v>
+        <v>0.002696613502071177</v>
       </c>
       <c r="I5">
-        <v>0.005275566090288564</v>
+        <v>0.003185673756997076</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>1.114727099314564</v>
+        <v>0.7524648920806385</v>
       </c>
       <c r="L5">
-        <v>0.2023129771245564</v>
+        <v>0.3514309174826096</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2217692043331212</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1957988910530304</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.554480246699541</v>
+        <v>2.562165115555672</v>
       </c>
       <c r="C6">
-        <v>1.111548126933883</v>
+        <v>1.249871344826317</v>
       </c>
       <c r="D6">
-        <v>0.01939114276736831</v>
+        <v>0.04405854649739638</v>
       </c>
       <c r="E6">
-        <v>0.09173654472983017</v>
+        <v>0.1061636586230108</v>
       </c>
       <c r="F6">
-        <v>2.496378687628038</v>
+        <v>1.943673595307473</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.003781125389659357</v>
+        <v>0.002803518289677509</v>
       </c>
       <c r="I6">
-        <v>0.005542883772439389</v>
+        <v>0.003415350714131016</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>1.106181209356635</v>
+        <v>0.7480997913252523</v>
       </c>
       <c r="L6">
-        <v>0.2007620696758252</v>
+        <v>0.3499653255265329</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2200538689204343</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1943859969567896</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.681126030655832</v>
+        <v>2.68921451213447</v>
       </c>
       <c r="C7">
-        <v>1.167757876959115</v>
+        <v>1.314200629061077</v>
       </c>
       <c r="D7">
-        <v>0.02040292217282413</v>
+        <v>0.04653180166773296</v>
       </c>
       <c r="E7">
-        <v>0.09624479115406714</v>
+        <v>0.1113267877903326</v>
       </c>
       <c r="F7">
-        <v>2.576770619463204</v>
+        <v>1.994968369746076</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.002942909553757866</v>
+        <v>0.002137465770098324</v>
       </c>
       <c r="I7">
-        <v>0.004647455382480459</v>
+        <v>0.002876827707087415</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>1.132948764645391</v>
+        <v>0.7578830510050238</v>
       </c>
       <c r="L7">
-        <v>0.2104895814333787</v>
+        <v>0.35152684493724</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.225242347136966</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2033618747663368</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.241631848515681</v>
+        <v>3.250528711157187</v>
       </c>
       <c r="C8">
-        <v>1.415192704478329</v>
+        <v>1.598261903911123</v>
       </c>
       <c r="D8">
-        <v>0.02455109663968713</v>
+        <v>0.05714394430481207</v>
       </c>
       <c r="E8">
-        <v>0.1161024693802766</v>
+        <v>0.1340987124968578</v>
       </c>
       <c r="F8">
-        <v>2.947774536879507</v>
+        <v>2.232085158517151</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0005358857613355639</v>
+        <v>0.0003045226910871612</v>
       </c>
       <c r="I8">
-        <v>0.001760217083649707</v>
+        <v>0.001216945344963527</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>1.260550378922062</v>
+        <v>0.8066702663191663</v>
       </c>
       <c r="L8">
-        <v>0.25402682880366</v>
+        <v>0.3599374797097354</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2520875711507031</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2433750538032058</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.350506305246029</v>
+        <v>4.356525490362458</v>
       </c>
       <c r="C9">
-        <v>1.907228844207282</v>
+        <v>2.164185141742337</v>
       </c>
       <c r="D9">
-        <v>0.0324765319348046</v>
+        <v>0.0780123619906874</v>
       </c>
       <c r="E9">
-        <v>0.1557182846454879</v>
+        <v>0.1794236510823453</v>
       </c>
       <c r="F9">
-        <v>3.712327559526187</v>
+        <v>2.720209638825509</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.001211207684465698</v>
+        <v>0.001293812279716366</v>
       </c>
       <c r="I9">
-        <v>0.001324598402592692</v>
+        <v>0.001788399917203698</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.529781037874059</v>
+        <v>0.9125916534271497</v>
       </c>
       <c r="L9">
-        <v>0.3417436431028165</v>
+        <v>0.377144909015513</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3163717024967809</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.323377691404815</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.173619317471207</v>
+        <v>5.174103961409116</v>
       </c>
       <c r="C10">
-        <v>2.267141761856692</v>
+        <v>2.573622974071725</v>
       </c>
       <c r="D10">
-        <v>0.03859482808565673</v>
+        <v>0.09279037812065383</v>
       </c>
       <c r="E10">
-        <v>0.1787822177029099</v>
+        <v>0.2056571157544269</v>
       </c>
       <c r="F10">
-        <v>4.185171060825269</v>
+        <v>3.017223108088643</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.005596376155897254</v>
+        <v>0.005305790147578371</v>
       </c>
       <c r="I10">
-        <v>0.005207828103276135</v>
+        <v>0.005426985935138795</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.681418852996188</v>
+        <v>0.9645338553443992</v>
       </c>
       <c r="L10">
-        <v>0.3895604181847716</v>
+        <v>0.3782861056678115</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3585923775748867</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3659888979689185</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.538392306150172</v>
+        <v>5.537760533458766</v>
       </c>
       <c r="C11">
-        <v>2.3098491205713</v>
+        <v>2.592773851086065</v>
       </c>
       <c r="D11">
-        <v>0.03806768740928135</v>
+        <v>0.08559908218036583</v>
       </c>
       <c r="E11">
-        <v>0.1325168463068778</v>
+        <v>0.1531437570894134</v>
       </c>
       <c r="F11">
-        <v>3.621096065932107</v>
+        <v>2.625176283123949</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02435834985855578</v>
+        <v>0.02405280471176496</v>
       </c>
       <c r="I11">
-        <v>0.006983104198803325</v>
+        <v>0.007192573120104129</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.382407167819707</v>
+        <v>0.7909577077403327</v>
       </c>
       <c r="L11">
-        <v>0.269848975965715</v>
+        <v>0.3092352842457018</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2993670463789755</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2520892911444435</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.67194386577728</v>
+        <v>5.671701674078349</v>
       </c>
       <c r="C12">
-        <v>2.261864183812406</v>
+        <v>2.515309231544279</v>
       </c>
       <c r="D12">
-        <v>0.0356057569815178</v>
+        <v>0.07587428055227718</v>
       </c>
       <c r="E12">
-        <v>0.09592795416804734</v>
+        <v>0.1113020055649621</v>
       </c>
       <c r="F12">
-        <v>3.10583858810017</v>
+        <v>2.27106938218185</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06242866385624524</v>
+        <v>0.06220580014216637</v>
       </c>
       <c r="I12">
-        <v>0.007010957288359876</v>
+        <v>0.007262019243027495</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.138519440257468</v>
+        <v>0.656465183158808</v>
       </c>
       <c r="L12">
-        <v>0.1818064050802022</v>
+        <v>0.2599154518129012</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2483381609565498</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1691966012462771</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.633658825237433</v>
+        <v>5.635027986828391</v>
       </c>
       <c r="C13">
-        <v>2.147647971897356</v>
+        <v>2.364879987558083</v>
       </c>
       <c r="D13">
-        <v>0.03222692528053273</v>
+        <v>0.06475073303095513</v>
       </c>
       <c r="E13">
-        <v>0.06537114479844419</v>
+        <v>0.07598484235672842</v>
       </c>
       <c r="F13">
-        <v>2.576368615624219</v>
+        <v>1.909293954808973</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.116963836390795</v>
+        <v>0.1168848614821059</v>
       </c>
       <c r="I13">
-        <v>0.00597764103548748</v>
+        <v>0.006384742228026319</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.907674059402936</v>
+        <v>0.5340316163092496</v>
       </c>
       <c r="L13">
-        <v>0.1131720327241581</v>
+        <v>0.2180897266264026</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1976704508904987</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.105434156867954</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.529402248746862</v>
+        <v>5.532305566434957</v>
       </c>
       <c r="C14">
-        <v>2.039798107036745</v>
+        <v>2.228814446260401</v>
       </c>
       <c r="D14">
-        <v>0.02957586772016896</v>
+        <v>0.05666356563146024</v>
       </c>
       <c r="E14">
-        <v>0.04802394616657679</v>
+        <v>0.05566673296499403</v>
       </c>
       <c r="F14">
-        <v>2.204453724876032</v>
+        <v>1.655188712857068</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1653220714512713</v>
+        <v>0.1653454994934975</v>
       </c>
       <c r="I14">
-        <v>0.004974920627187629</v>
+        <v>0.005521995569752747</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.7545311621919453</v>
+        <v>0.4545905225225511</v>
       </c>
       <c r="L14">
-        <v>0.07741205068568391</v>
+        <v>0.19199207835468</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1632190060661038</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0727640912419858</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.4674326299928</v>
+        <v>5.470932809144301</v>
       </c>
       <c r="C15">
-        <v>2.001330941243737</v>
+        <v>2.181900768037337</v>
       </c>
       <c r="D15">
-        <v>0.02887879987572362</v>
+        <v>0.05454246614839064</v>
       </c>
       <c r="E15">
-        <v>0.0441640533341765</v>
+        <v>0.0511188451091833</v>
       </c>
       <c r="F15">
-        <v>2.1029158661119</v>
+        <v>1.586235427164411</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1774520167458036</v>
+        <v>0.1775067898134921</v>
       </c>
       <c r="I15">
-        <v>0.004658194283865491</v>
+        <v>0.005271597234422387</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.7147928029931307</v>
+        <v>0.4346793966984066</v>
       </c>
       <c r="L15">
-        <v>0.06999541219821026</v>
+        <v>0.1858288231156493</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1539730386872478</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06611715678545238</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.119661103626527</v>
+        <v>5.12526062113659</v>
       </c>
       <c r="C16">
-        <v>1.874662692829077</v>
+        <v>2.042120778944366</v>
       </c>
       <c r="D16">
-        <v>0.0270747363364201</v>
+        <v>0.05115460975793695</v>
       </c>
       <c r="E16">
-        <v>0.04181024542659628</v>
+        <v>0.04865493954438271</v>
       </c>
       <c r="F16">
-        <v>2.015103998125738</v>
+        <v>1.533184851337865</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1632711561871076</v>
+        <v>0.163389493505008</v>
       </c>
       <c r="I16">
-        <v>0.003198669194582671</v>
+        <v>0.00392308123842966</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.6980637960154255</v>
+        <v>0.4345875668489683</v>
       </c>
       <c r="L16">
-        <v>0.06663194891079982</v>
+        <v>0.1897007635850656</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1478535420869385</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06341989099977496</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.908996849464017</v>
+        <v>4.915376641709713</v>
       </c>
       <c r="C17">
-        <v>1.834697301471977</v>
+        <v>2.006838620159328</v>
       </c>
       <c r="D17">
-        <v>0.02715838425924488</v>
+        <v>0.05276836721818512</v>
       </c>
       <c r="E17">
-        <v>0.04833047870240925</v>
+        <v>0.0565410025617723</v>
       </c>
       <c r="F17">
-        <v>2.13841123379801</v>
+        <v>1.623871729503009</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.124921933408686</v>
+        <v>0.1250400033838446</v>
       </c>
       <c r="I17">
-        <v>0.002675062757264257</v>
+        <v>0.003407770857906556</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.762721996083549</v>
+        <v>0.4752801833793612</v>
       </c>
       <c r="L17">
-        <v>0.08040665247997936</v>
+        <v>0.2066993144077642</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1603113770948639</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07625666658530861</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.791181370062532</v>
+        <v>4.797501336869232</v>
       </c>
       <c r="C18">
-        <v>1.860897746545504</v>
+        <v>2.054214162622031</v>
       </c>
       <c r="D18">
-        <v>0.02853096666392574</v>
+        <v>0.05870847053705575</v>
       </c>
       <c r="E18">
-        <v>0.06697150776192018</v>
+        <v>0.07832976308174011</v>
       </c>
       <c r="F18">
-        <v>2.486625600656609</v>
+        <v>1.867925620945186</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07207215535779454</v>
+        <v>0.07217905331883401</v>
       </c>
       <c r="I18">
-        <v>0.00236483514343977</v>
+        <v>0.003038322924712844</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.9232121612200572</v>
+        <v>0.5662165659950489</v>
       </c>
       <c r="L18">
-        <v>0.1217562278411108</v>
+        <v>0.2412305838650042</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1936007252500147</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1148129582917221</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.756125565629304</v>
+        <v>4.761687871027107</v>
       </c>
       <c r="C19">
-        <v>1.945727044133605</v>
+        <v>2.171635167051591</v>
       </c>
       <c r="D19">
-        <v>0.03175096270166478</v>
+        <v>0.06926226964672111</v>
       </c>
       <c r="E19">
-        <v>0.1003759980494401</v>
+        <v>0.116609352345094</v>
       </c>
       <c r="F19">
-        <v>2.999941900849905</v>
+        <v>2.221848706464158</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02736665219971002</v>
+        <v>0.02745057872898116</v>
       </c>
       <c r="I19">
-        <v>0.002737227667058306</v>
+        <v>0.003416424371574855</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>1.155512299154125</v>
+        <v>0.693268815692619</v>
       </c>
       <c r="L19">
-        <v>0.1992083191037608</v>
+        <v>0.288177625093418</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2420977743113895</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1876078299920536</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.956024645222442</v>
+        <v>4.95835281017122</v>
       </c>
       <c r="C20">
-        <v>2.182824883562773</v>
+        <v>2.474550147813829</v>
       </c>
       <c r="D20">
-        <v>0.03856518594107428</v>
+        <v>0.09085371882674309</v>
       </c>
       <c r="E20">
-        <v>0.1732839912203303</v>
+        <v>0.1991784171674524</v>
       </c>
       <c r="F20">
-        <v>4.006303667343445</v>
+        <v>2.901904357863145</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.004089195740880847</v>
+        <v>0.003954317052992984</v>
       </c>
       <c r="I20">
-        <v>0.004545557777880127</v>
+        <v>0.005071723411314899</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>1.607376344017851</v>
+        <v>0.9305874230960498</v>
       </c>
       <c r="L20">
-        <v>0.3750257666793715</v>
+        <v>0.3707675271193622</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3392597820924195</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3531476338782085</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.594149570752393</v>
+        <v>5.590366271716732</v>
       </c>
       <c r="C21">
-        <v>2.484059932299033</v>
+        <v>2.82241407647092</v>
       </c>
       <c r="D21">
-        <v>0.04392863579358419</v>
+        <v>0.1048928732948298</v>
       </c>
       <c r="E21">
-        <v>0.2024853013280179</v>
+        <v>0.2322303455961006</v>
       </c>
       <c r="F21">
-        <v>4.523540884190737</v>
+        <v>3.234025767822004</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.009138161843623066</v>
+        <v>0.008426160328633803</v>
       </c>
       <c r="I21">
-        <v>0.009145513089012347</v>
+        <v>0.00902572063395457</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.79768702372634</v>
+        <v>1.010499288560908</v>
       </c>
       <c r="L21">
-        <v>0.4407655202153791</v>
+        <v>0.3854962110260374</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3889626828160502</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4130869477295391</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.014116729995237</v>
+        <v>6.005363625142309</v>
       </c>
       <c r="C22">
-        <v>2.671771158289516</v>
+        <v>3.038668541563538</v>
       </c>
       <c r="D22">
-        <v>0.04661136387407083</v>
+        <v>0.1124852282672322</v>
       </c>
       <c r="E22">
-        <v>0.2177855558298702</v>
+        <v>0.2496016698619243</v>
       </c>
       <c r="F22">
-        <v>4.840488372749121</v>
+        <v>3.43647343534235</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01339876303837573</v>
+        <v>0.01214380270942345</v>
       </c>
       <c r="I22">
-        <v>0.01290963988192839</v>
+        <v>0.01203138139984183</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.915043218284609</v>
+        <v>1.059472067187698</v>
       </c>
       <c r="L22">
-        <v>0.4755539395264492</v>
+        <v>0.393319161980294</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4213816705903</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4443001915927027</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.789913702386514</v>
+        <v>5.783864268865329</v>
       </c>
       <c r="C23">
-        <v>2.566835541457067</v>
+        <v>2.919056246304081</v>
       </c>
       <c r="D23">
-        <v>0.04453323600469616</v>
+        <v>0.1076050608942154</v>
       </c>
       <c r="E23">
-        <v>0.2092253861663806</v>
+        <v>0.2399852333339183</v>
       </c>
       <c r="F23">
-        <v>4.690263794889177</v>
+        <v>3.3412965950466</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.01105553229054468</v>
+        <v>0.01009977395511617</v>
       </c>
       <c r="I23">
-        <v>0.01055765175593137</v>
+        <v>0.01004124783759952</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.864709440117906</v>
+        <v>1.040604799490779</v>
       </c>
       <c r="L23">
-        <v>0.4573700233234774</v>
+        <v>0.3917266782774647</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4069072014207649</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4279389455842022</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.947022749342295</v>
+        <v>4.949198398015824</v>
       </c>
       <c r="C24">
-        <v>2.182836404529837</v>
+        <v>2.478816247224813</v>
       </c>
       <c r="D24">
-        <v>0.03792786089078248</v>
+        <v>0.09083146531683184</v>
       </c>
       <c r="E24">
-        <v>0.1780166772919074</v>
+        <v>0.204648370943211</v>
       </c>
       <c r="F24">
-        <v>4.098331317047126</v>
+        <v>2.964667642672879</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.004139792853662616</v>
+        <v>0.003985556393149015</v>
       </c>
       <c r="I24">
-        <v>0.004152764471914594</v>
+        <v>0.004567568522269916</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>1.656778278219647</v>
+        <v>0.9586068297493071</v>
       </c>
       <c r="L24">
-        <v>0.3889534940056052</v>
+        <v>0.3811057231965052</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3499511740961481</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3662478459224161</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.04883194408643</v>
+        <v>4.056231833900256</v>
       </c>
       <c r="C25">
-        <v>1.779081221584647</v>
+        <v>2.015052393706583</v>
       </c>
       <c r="D25">
-        <v>0.03118610227588192</v>
+        <v>0.07340741985282762</v>
       </c>
       <c r="E25">
-        <v>0.145383408301246</v>
+        <v>0.1674849060424499</v>
       </c>
       <c r="F25">
-        <v>3.475011024075712</v>
+        <v>2.56743490608639</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0003699627330684407</v>
+        <v>0.000469681765558061</v>
       </c>
       <c r="I25">
-        <v>0.001162641811750298</v>
+        <v>0.001597835651216073</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>1.437941228614534</v>
+        <v>0.8725898715695806</v>
       </c>
       <c r="L25">
-        <v>0.3171258696837924</v>
+        <v>0.3686028187066768</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2938352572606036</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3010738904708035</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
